--- a/Jogos_do_Dia_Betfair_Back_Lay_2024-12-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2024-12-12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -633,7 +633,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -643,126 +643,126 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Vikingur Reykjavik</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Djurgardens</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="G2" t="n">
         <v>3.55</v>
       </c>
       <c r="H2" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="I2" t="n">
-        <v>2.2</v>
+        <v>2.36</v>
       </c>
       <c r="J2" t="n">
-        <v>3.85</v>
+        <v>3.55</v>
       </c>
       <c r="K2" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>5.6</v>
+        <v>3.55</v>
       </c>
       <c r="O2" t="n">
-        <v>1.16</v>
+        <v>1.24</v>
       </c>
       <c r="P2" t="n">
-        <v>2.72</v>
+        <v>2.04</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.52</v>
+        <v>1.83</v>
       </c>
       <c r="R2" t="n">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="S2" t="n">
-        <v>2.78</v>
+        <v>2.04</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="V2" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="W2" t="n">
-        <v>18.5</v>
+        <v>11.5</v>
       </c>
       <c r="X2" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Y2" t="n">
+        <v>36</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD2" t="n">
         <v>32</v>
       </c>
-      <c r="Z2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>30</v>
-      </c>
       <c r="AE2" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AF2" t="n">
-        <v>14.5</v>
+        <v>21</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="AH2" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AI2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AJ2" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>110</v>
+      </c>
+      <c r="AL2" t="n">
         <v>42</v>
       </c>
-      <c r="AK2" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL2" t="n">
+      <c r="AM2" t="n">
         <v>21</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>9.6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -772,61 +772,61 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Union St Gilloise</t>
+          <t>FC Astana</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.18</v>
+        <v>8</v>
       </c>
       <c r="G3" t="n">
-        <v>2.2</v>
+        <v>8.4</v>
       </c>
       <c r="H3" t="n">
-        <v>3.65</v>
+        <v>1.45</v>
       </c>
       <c r="I3" t="n">
-        <v>3.85</v>
+        <v>1.46</v>
       </c>
       <c r="J3" t="n">
-        <v>3.5</v>
+        <v>5.2</v>
       </c>
       <c r="K3" t="n">
-        <v>3.7</v>
+        <v>5.4</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>3.5</v>
+        <v>2.94</v>
       </c>
       <c r="O3" t="n">
-        <v>1.29</v>
+        <v>1.14</v>
       </c>
       <c r="P3" t="n">
-        <v>1.9</v>
+        <v>2.54</v>
       </c>
       <c r="Q3" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="S3" t="n">
         <v>2.08</v>
       </c>
-      <c r="R3" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="S3" t="n">
-        <v>2.06</v>
-      </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
@@ -834,58 +834,58 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>15.5</v>
+        <v>30</v>
       </c>
       <c r="W3" t="n">
         <v>16.5</v>
       </c>
       <c r="X3" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AE3" t="n">
         <v>32</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="AF3" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>40</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>250</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>85</v>
       </c>
-      <c r="Z3" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>55</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>70</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>50</v>
-      </c>
       <c r="AK3" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="AL3" t="n">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="AM3" t="n">
-        <v>55</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="4">
@@ -906,55 +906,55 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Olympiakos</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>FC Twente</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>1.81</v>
       </c>
       <c r="G4" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="H4" t="n">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="J4" t="n">
         <v>3.9</v>
       </c>
       <c r="K4" t="n">
-        <v>4.3</v>
+        <v>3.95</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.23</v>
+        <v>1.32</v>
       </c>
       <c r="P4" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="R4" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="S4" t="n">
-        <v>2.14</v>
+        <v>2.02</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -963,58 +963,58 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="W4" t="n">
+        <v>18</v>
+      </c>
+      <c r="X4" t="n">
+        <v>40</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>150</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AB4" t="n">
         <v>21</v>
       </c>
-      <c r="W4" t="n">
-        <v>23</v>
-      </c>
-      <c r="X4" t="n">
-        <v>46</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>130</v>
-      </c>
-      <c r="Z4" t="n">
+      <c r="AC4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD4" t="n">
         <v>11</v>
       </c>
-      <c r="AA4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>70</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>14</v>
-      </c>
       <c r="AE4" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG4" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AH4" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AI4" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AJ4" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AK4" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AL4" t="n">
         <v>11.5</v>
       </c>
       <c r="AM4" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5">
@@ -1035,31 +1035,31 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Plzen</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.48</v>
+        <v>6.2</v>
       </c>
       <c r="G5" t="n">
-        <v>1.5</v>
+        <v>6.4</v>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>1.61</v>
       </c>
       <c r="I5" t="n">
-        <v>7.8</v>
+        <v>1.64</v>
       </c>
       <c r="J5" t="n">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="K5" t="n">
-        <v>5.3</v>
+        <v>4.6</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1068,22 +1068,22 @@
         <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="O5" t="n">
         <v>1.04</v>
       </c>
       <c r="P5" t="n">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="R5" t="n">
-        <v>1.83</v>
+        <v>1.76</v>
       </c>
       <c r="S5" t="n">
-        <v>2.06</v>
+        <v>2.18</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -1092,58 +1092,58 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="W5" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="X5" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>60</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG5" t="n">
         <v>34</v>
       </c>
-      <c r="X5" t="n">
-        <v>75</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>220</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>110</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>27</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>95</v>
-      </c>
       <c r="AH5" t="n">
-        <v>16.5</v>
+        <v>180</v>
       </c>
       <c r="AI5" t="n">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="AJ5" t="n">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="AK5" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AL5" t="n">
-        <v>6.4</v>
+        <v>85</v>
       </c>
       <c r="AM5" t="n">
-        <v>110</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="6">
@@ -1188,7 +1188,7 @@
         <v>3.4</v>
       </c>
       <c r="K6" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1236,7 +1236,7 @@
         <v>13</v>
       </c>
       <c r="AA6" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AB6" t="n">
         <v>12</v>
@@ -1293,31 +1293,31 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Plzen</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>FCSB</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>6.2</v>
+        <v>1.48</v>
       </c>
       <c r="G7" t="n">
-        <v>6.4</v>
+        <v>1.5</v>
       </c>
       <c r="H7" t="n">
-        <v>1.63</v>
+        <v>7</v>
       </c>
       <c r="I7" t="n">
-        <v>1.64</v>
+        <v>7.8</v>
       </c>
       <c r="J7" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="K7" t="n">
-        <v>4.5</v>
+        <v>5.3</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1326,22 +1326,22 @@
         <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="O7" t="n">
         <v>1.04</v>
       </c>
       <c r="P7" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="R7" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="S7" t="n">
-        <v>2.18</v>
+        <v>2.06</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1350,58 +1350,58 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="W7" t="n">
+        <v>34</v>
+      </c>
+      <c r="X7" t="n">
+        <v>75</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>220</v>
+      </c>
+      <c r="Z7" t="n">
         <v>10.5</v>
       </c>
-      <c r="X7" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>30</v>
-      </c>
       <c r="AA7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>110</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE7" t="n">
         <v>10.5</v>
       </c>
-      <c r="AB7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>60</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>28</v>
-      </c>
       <c r="AF7" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AG7" t="n">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="AH7" t="n">
-        <v>180</v>
+        <v>16.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="AJ7" t="n">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="AK7" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AL7" t="n">
-        <v>85</v>
+        <v>6.4</v>
       </c>
       <c r="AM7" t="n">
-        <v>7.4</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8">
@@ -1422,31 +1422,31 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>PAOK</t>
+          <t>Olympiakos</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Ferencvaros</t>
+          <t>FC Twente</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.99</v>
+        <v>1.81</v>
       </c>
       <c r="G8" t="n">
-        <v>2.02</v>
+        <v>1.87</v>
       </c>
       <c r="H8" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="I8" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J8" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="K8" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="O8" t="n">
-        <v>1.32</v>
+        <v>1.23</v>
       </c>
       <c r="P8" t="n">
-        <v>1.94</v>
+        <v>2.08</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.98</v>
+        <v>1.75</v>
       </c>
       <c r="R8" t="n">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="S8" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1479,58 +1479,58 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="W8" t="n">
-        <v>18.5</v>
+        <v>23</v>
       </c>
       <c r="X8" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="Y8" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="Z8" t="n">
-        <v>9.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="AA8" t="n">
-        <v>8.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="AB8" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AC8" t="n">
         <v>70</v>
       </c>
       <c r="AD8" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AE8" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AF8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG8" t="n">
         <v>75</v>
       </c>
       <c r="AH8" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AI8" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AJ8" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AK8" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AL8" t="n">
-        <v>17.5</v>
+        <v>11.5</v>
       </c>
       <c r="AM8" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
@@ -1551,55 +1551,55 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Union St Gilloise</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.81</v>
+        <v>2.18</v>
       </c>
       <c r="G9" t="n">
-        <v>1.82</v>
+        <v>2.2</v>
       </c>
       <c r="H9" t="n">
-        <v>5.1</v>
+        <v>3.65</v>
       </c>
       <c r="I9" t="n">
-        <v>5.4</v>
+        <v>3.85</v>
       </c>
       <c r="J9" t="n">
-        <v>3.85</v>
+        <v>3.5</v>
       </c>
       <c r="K9" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="P9" t="n">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.96</v>
+        <v>2.08</v>
       </c>
       <c r="R9" t="n">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="S9" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1608,58 +1608,58 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="W9" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="X9" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="Y9" t="n">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="Z9" t="n">
-        <v>8.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AA9" t="n">
-        <v>8.6</v>
+        <v>9.6</v>
       </c>
       <c r="AB9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>55</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>70</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>140</v>
+      </c>
+      <c r="AL9" t="n">
         <v>21</v>
       </c>
-      <c r="AC9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>90</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>150</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>12</v>
-      </c>
       <c r="AM9" t="n">
-        <v>95</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10">
@@ -1675,42 +1675,42 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Bodo Glimt</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.83</v>
+        <v>3.45</v>
       </c>
       <c r="G10" t="n">
-        <v>1.85</v>
+        <v>3.5</v>
       </c>
       <c r="H10" t="n">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="I10" t="n">
-        <v>4.6</v>
+        <v>2.22</v>
       </c>
       <c r="J10" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="K10" t="n">
-        <v>4.3</v>
+        <v>3.95</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N10" t="n">
         <v>5.6</v>
@@ -1719,16 +1719,16 @@
         <v>1.16</v>
       </c>
       <c r="P10" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="Q10" t="n">
         <v>1.54</v>
       </c>
       <c r="R10" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="S10" t="n">
-        <v>2.62</v>
+        <v>2.78</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1737,64 +1737,64 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
+        <v>27</v>
+      </c>
+      <c r="W10" t="n">
+        <v>17</v>
+      </c>
+      <c r="X10" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y10" t="n">
         <v>32</v>
       </c>
-      <c r="W10" t="n">
-        <v>24</v>
-      </c>
-      <c r="X10" t="n">
+      <c r="Z10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>30</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>27</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>70</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>42</v>
       </c>
-      <c r="Y10" t="n">
-        <v>100</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>14</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>55</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>48</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>27</v>
-      </c>
       <c r="AK10" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AL10" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="AM10" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1804,60 +1804,60 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>HJK Helsinki</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="G11" t="n">
-        <v>3.65</v>
+        <v>5.5</v>
       </c>
       <c r="H11" t="n">
-        <v>2.08</v>
+        <v>1.72</v>
       </c>
       <c r="I11" t="n">
-        <v>2.12</v>
+        <v>1.8</v>
       </c>
       <c r="J11" t="n">
         <v>4</v>
       </c>
       <c r="K11" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>2.78</v>
+        <v>2.26</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.55</v>
+        <v>1.69</v>
       </c>
       <c r="R11" t="n">
-        <v>1.52</v>
+        <v>1.61</v>
       </c>
       <c r="S11" t="n">
-        <v>2.66</v>
+        <v>2.18</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1866,58 +1866,58 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="W11" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="X11" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="Y11" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="Z11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AA11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB11" t="n">
         <v>10.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AD11" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="AE11" t="n">
-        <v>18.5</v>
+        <v>24</v>
       </c>
       <c r="AF11" t="n">
-        <v>16.5</v>
+        <v>23</v>
       </c>
       <c r="AG11" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AH11" t="n">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="AI11" t="n">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="AJ11" t="n">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="AK11" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="AL11" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="AM11" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="12">
@@ -1933,60 +1933,60 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>PAOK</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Qarabag FK</t>
+          <t>Ferencvaros</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.6</v>
+        <v>1.99</v>
       </c>
       <c r="G12" t="n">
-        <v>2.62</v>
+        <v>2.02</v>
       </c>
       <c r="H12" t="n">
-        <v>2.84</v>
+        <v>4.2</v>
       </c>
       <c r="I12" t="n">
-        <v>2.88</v>
+        <v>4.5</v>
       </c>
       <c r="J12" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N12" t="n">
         <v>3.75</v>
       </c>
-      <c r="K12" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N12" t="n">
-        <v>5</v>
-      </c>
       <c r="O12" t="n">
-        <v>1.18</v>
+        <v>1.32</v>
       </c>
       <c r="P12" t="n">
-        <v>2.44</v>
+        <v>1.94</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.67</v>
+        <v>1.98</v>
       </c>
       <c r="R12" t="n">
-        <v>1.56</v>
+        <v>1.8</v>
       </c>
       <c r="S12" t="n">
-        <v>2.6</v>
+        <v>2.08</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1995,64 +1995,64 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="W12" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="X12" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="Y12" t="n">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="Z12" t="n">
-        <v>15.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AA12" t="n">
-        <v>9.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AB12" t="n">
-        <v>13.5</v>
+        <v>20</v>
       </c>
       <c r="AC12" t="n">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="AD12" t="n">
-        <v>23</v>
+        <v>12.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="AG12" t="n">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AH12" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>46</v>
       </c>
-      <c r="AI12" t="n">
-        <v>24</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>34</v>
-      </c>
       <c r="AK12" t="n">
+        <v>140</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AM12" t="n">
         <v>75</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>17</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2062,60 +2062,60 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Legia Warsaw</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Lugano</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.22</v>
+        <v>2.04</v>
       </c>
       <c r="G13" t="n">
-        <v>2.26</v>
+        <v>2.16</v>
       </c>
       <c r="H13" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="I13" t="n">
-        <v>3.5</v>
+        <v>3.95</v>
       </c>
       <c r="J13" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K13" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.58</v>
+        <v>2.2</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="R13" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S13" t="n">
-        <v>2.72</v>
+        <v>2.08</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -2124,64 +2124,64 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="W13" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="X13" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Y13" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Z13" t="n">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA13" t="n">
         <v>9.4</v>
       </c>
       <c r="AB13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AC13" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AD13" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF13" t="n">
         <v>21</v>
       </c>
-      <c r="AE13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>17</v>
-      </c>
       <c r="AG13" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="AH13" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AI13" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AJ13" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AK13" t="n">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="AL13" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AM13" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2191,36 +2191,36 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Rigas Futbola Skola</t>
+          <t>FC Heidenheim</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.57</v>
+        <v>2.6</v>
       </c>
       <c r="G14" t="n">
-        <v>1.64</v>
+        <v>2.7</v>
       </c>
       <c r="H14" t="n">
-        <v>6</v>
+        <v>2.78</v>
       </c>
       <c r="I14" t="n">
-        <v>7.2</v>
+        <v>2.94</v>
       </c>
       <c r="J14" t="n">
-        <v>4.1</v>
+        <v>3.45</v>
       </c>
       <c r="K14" t="n">
-        <v>4.7</v>
+        <v>3.7</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2229,22 +2229,22 @@
         <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>2.04</v>
+        <v>1.94</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="R14" t="n">
-        <v>1.92</v>
+        <v>1.6</v>
       </c>
       <c r="S14" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -2253,64 +2253,64 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="W14" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="X14" t="n">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="Y14" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="Z14" t="n">
-        <v>9.6</v>
+        <v>14.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AB14" t="n">
-        <v>30</v>
+        <v>15.5</v>
       </c>
       <c r="AC14" t="n">
+        <v>36</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>50</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>48</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK14" t="n">
         <v>110</v>
       </c>
-      <c r="AD14" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF14" t="n">
+      <c r="AL14" t="n">
         <v>28</v>
       </c>
-      <c r="AG14" t="n">
-        <v>110</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>44</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>160</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>9.4</v>
-      </c>
       <c r="AM14" t="n">
-        <v>130</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2320,60 +2320,60 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Slavia Prague</t>
+          <t>FC Copenhagen</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Anderlecht</t>
+          <t>Hearts</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.49</v>
+        <v>1.41</v>
       </c>
       <c r="G15" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="H15" t="n">
-        <v>7.2</v>
+        <v>9</v>
       </c>
       <c r="I15" t="n">
-        <v>8.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="J15" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="K15" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="R15" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="S15" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -2382,64 +2382,64 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AF15" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AG15" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH15" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AI15" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AK15" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="AL15" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AM15" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2449,60 +2449,60 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Real Sociedad</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Dynamo Kiev</t>
+          <t>Lask Linz</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.27</v>
+        <v>1.39</v>
       </c>
       <c r="G16" t="n">
-        <v>1.29</v>
+        <v>1.45</v>
       </c>
       <c r="H16" t="n">
-        <v>14.5</v>
+        <v>8</v>
       </c>
       <c r="I16" t="n">
-        <v>18.5</v>
+        <v>11</v>
       </c>
       <c r="J16" t="n">
-        <v>6.2</v>
+        <v>5</v>
       </c>
       <c r="K16" t="n">
-        <v>6.6</v>
+        <v>5.8</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>2.16</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.81</v>
+        <v>1.69</v>
       </c>
       <c r="R16" t="n">
-        <v>2.48</v>
+        <v>1.89</v>
       </c>
       <c r="S16" t="n">
-        <v>1.55</v>
+        <v>1.76</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -2511,64 +2511,64 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="W16" t="n">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="X16" t="n">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="Y16" t="n">
         <v>1000</v>
       </c>
       <c r="Z16" t="n">
-        <v>8</v>
+        <v>9.6</v>
       </c>
       <c r="AA16" t="n">
-        <v>17.5</v>
+        <v>13</v>
       </c>
       <c r="AB16" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="AC16" t="n">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="AD16" t="n">
-        <v>6.8</v>
+        <v>9</v>
       </c>
       <c r="AE16" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="AF16" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="AG16" t="n">
-        <v>330</v>
+        <v>140</v>
       </c>
       <c r="AH16" t="n">
-        <v>9.800000000000001</v>
+        <v>12</v>
       </c>
       <c r="AI16" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AJ16" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AK16" t="n">
-        <v>380</v>
+        <v>190</v>
       </c>
       <c r="AL16" t="n">
-        <v>5.4</v>
+        <v>6.6</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>UEFA Europa League</t>
+          <t>UEFA Europa Conference League</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2578,248 +2578,2570 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>FC Noah</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Midtjylland</t>
+          <t>APOEL</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.32</v>
+        <v>3.15</v>
       </c>
       <c r="G17" t="n">
-        <v>1.33</v>
+        <v>3.6</v>
       </c>
       <c r="H17" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
         <v>11</v>
       </c>
-      <c r="I17" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J17" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="K17" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N17" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="X17" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>44</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>38</v>
+      </c>
+      <c r="AD17" t="n">
         <v>26</v>
       </c>
-      <c r="W17" t="n">
-        <v>85</v>
-      </c>
-      <c r="X17" t="n">
-        <v>110</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>420</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>14</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>42</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>180</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>8.800000000000001</v>
-      </c>
       <c r="AE17" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AF17" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AG17" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AH17" t="n">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="AI17" t="n">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="AJ17" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AK17" t="n">
         <v>170</v>
       </c>
       <c r="AL17" t="n">
-        <v>4.7</v>
+        <v>60</v>
       </c>
       <c r="AM17" t="n">
-        <v>200</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>UEFA Europa Conference League</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2024-12-12</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>14:45:00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Dinamo Minsk</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Larne</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="H18" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="I18" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>4</v>
+      </c>
+      <c r="K18" t="n">
+        <v>5</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="W18" t="n">
+        <v>29</v>
+      </c>
+      <c r="X18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>42</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>230</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>42</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>220</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>UEFA Europa Conference League</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2024-12-12</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>14:45:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>CS Petrocub</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Betis</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>13</v>
+      </c>
+      <c r="G19" t="n">
+        <v>18</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="J19" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="K19" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>40</v>
+      </c>
+      <c r="W19" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="X19" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>190</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>60</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>300</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>200</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>280</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>410</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>UEFA Europa Conference League</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2024-12-12</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>14:45:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Olimpija</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Cercle Brugge</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>13</v>
+      </c>
+      <c r="W20" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="X20" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>80</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>55</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>70</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>140</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
           <t>UEFA Europa League</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>2024-12-12</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>17:00:00</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Bodo Glimt</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Besiktas</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H21" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I21" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J21" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K21" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N21" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>32</v>
+      </c>
+      <c r="W21" t="n">
+        <v>24</v>
+      </c>
+      <c r="X21" t="n">
+        <v>42</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>55</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>48</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>70</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>8</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>UEFA Europa League</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2024-12-12</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Rangers</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>4</v>
+      </c>
+      <c r="K22" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N22" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>29</v>
+      </c>
+      <c r="W22" t="n">
+        <v>18</v>
+      </c>
+      <c r="X22" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>38</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>75</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>70</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>UEFA Europa League</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2024-12-12</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Elfsborg</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Qarabag FK</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N23" t="n">
+        <v>5</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>23</v>
+      </c>
+      <c r="W23" t="n">
+        <v>17</v>
+      </c>
+      <c r="X23" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>48</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>38</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>46</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>75</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>UEFA Europa League</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2024-12-12</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Midtjylland</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="H24" t="n">
+        <v>11</v>
+      </c>
+      <c r="I24" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J24" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="K24" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N24" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>26</v>
+      </c>
+      <c r="W24" t="n">
+        <v>85</v>
+      </c>
+      <c r="X24" t="n">
+        <v>110</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>420</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>42</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>180</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>170</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>UEFA Europa League</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2024-12-12</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Maccabi Tel Aviv</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Rigas Futbola Skola</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+      <c r="I25" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="J25" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K25" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N25" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>19</v>
+      </c>
+      <c r="W25" t="n">
+        <v>26</v>
+      </c>
+      <c r="X25" t="n">
+        <v>65</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>220</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>110</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>110</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>160</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>UEFA Europa League</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2024-12-12</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Slavia Prague</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Anderlecht</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H26" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="I26" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="J26" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="K26" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N26" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>20</v>
+      </c>
+      <c r="W26" t="n">
+        <v>28</v>
+      </c>
+      <c r="X26" t="n">
+        <v>65</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>240</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>120</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>150</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>UEFA Europa League</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2024-12-12</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Lyon</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K27" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N27" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S27" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>32</v>
+      </c>
+      <c r="W27" t="n">
+        <v>24</v>
+      </c>
+      <c r="X27" t="n">
+        <v>36</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>75</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>42</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>42</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>UEFA Europa Conference League</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2024-12-12</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Omonia</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Rapid Vienna</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>3</v>
+      </c>
+      <c r="G28" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K28" t="n">
+        <v>4</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="S28" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="W28" t="n">
+        <v>14</v>
+      </c>
+      <c r="X28" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>42</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>32</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>46</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>65</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>110</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>UEFA Europa Conference League</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2024-12-12</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Gent</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>FK Backa Topola</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="H29" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="I29" t="n">
+        <v>12</v>
+      </c>
+      <c r="J29" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K29" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>38</v>
+      </c>
+      <c r="W29" t="n">
+        <v>48</v>
+      </c>
+      <c r="X29" t="n">
+        <v>110</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>140</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>110</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>130</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>UEFA Europa Conference League</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2024-12-12</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Shamrock Rovers</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Borac Banja Luka</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K30" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>12</v>
+      </c>
+      <c r="W30" t="n">
+        <v>13</v>
+      </c>
+      <c r="X30" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>75</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>42</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>160</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>UEFA Europa Conference League</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2024-12-12</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>St Gallen</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Guimaraes</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="G31" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K31" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="S31" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>20</v>
+      </c>
+      <c r="W31" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="X31" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>42</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>48</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>95</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>UEFA Europa Conference League</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2024-12-12</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Paphos FC</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>NK Celje</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+      <c r="I32" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="J32" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K32" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>32</v>
+      </c>
+      <c r="W32" t="n">
+        <v>32</v>
+      </c>
+      <c r="X32" t="n">
+        <v>70</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>200</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>75</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>110</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>UEFA Europa Conference League</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2024-12-12</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>The New Saints</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Panathinaikos</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="G33" t="n">
+        <v>11</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="J33" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="K33" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="R33" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>25</v>
+      </c>
+      <c r="W33" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="X33" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>18</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>120</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>38</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>46</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>440</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>210</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>170</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>210</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>270</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>UEFA Europa League</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2024-12-12</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Dynamo Kiev</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="H34" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="I34" t="n">
+        <v>18</v>
+      </c>
+      <c r="J34" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="K34" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N34" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R34" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>22</v>
+      </c>
+      <c r="W34" t="n">
+        <v>46</v>
+      </c>
+      <c r="X34" t="n">
+        <v>180</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>70</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>400</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>330</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>380</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>6</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>UEFA Europa Conference League</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2024-12-12</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Mlada Boleslav</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Jagiellonia Bialystock</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G35" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="H35" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I35" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K35" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S35" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>24</v>
+      </c>
+      <c r="W35" t="n">
+        <v>20</v>
+      </c>
+      <c r="X35" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>65</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>40</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>46</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>36</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>85</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>UEFA Europa League</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2024-12-12</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>Ajax</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>Lazio</t>
         </is>
       </c>
-      <c r="F18" t="n">
+      <c r="F36" t="n">
         <v>2.3</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G36" t="n">
         <v>2.36</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H36" t="n">
         <v>3.2</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I36" t="n">
         <v>3.3</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J36" t="n">
         <v>3.7</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K36" t="n">
         <v>3.8</v>
       </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
         <v>1.04</v>
       </c>
-      <c r="N18" t="n">
+      <c r="N36" t="n">
         <v>4</v>
       </c>
-      <c r="O18" t="n">
+      <c r="O36" t="n">
         <v>1.05</v>
       </c>
-      <c r="P18" t="n">
+      <c r="P36" t="n">
         <v>2.26</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="Q36" t="n">
         <v>1.78</v>
       </c>
-      <c r="R18" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S18" t="n">
+      <c r="R36" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S36" t="n">
         <v>2.5</v>
       </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" t="n">
+      <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
         <v>23</v>
       </c>
-      <c r="W18" t="n">
+      <c r="W36" t="n">
         <v>19</v>
       </c>
-      <c r="X18" t="n">
+      <c r="X36" t="n">
         <v>30</v>
       </c>
-      <c r="Y18" t="n">
+      <c r="Y36" t="n">
         <v>65</v>
       </c>
-      <c r="Z18" t="n">
+      <c r="Z36" t="n">
         <v>13</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="AA36" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="AB18" t="n">
+      <c r="AB36" t="n">
         <v>14</v>
       </c>
-      <c r="AC18" t="n">
+      <c r="AC36" t="n">
         <v>40</v>
       </c>
-      <c r="AD18" t="n">
+      <c r="AD36" t="n">
         <v>20</v>
       </c>
-      <c r="AE18" t="n">
+      <c r="AE36" t="n">
         <v>11.5</v>
       </c>
-      <c r="AF18" t="n">
+      <c r="AF36" t="n">
         <v>18.5</v>
       </c>
-      <c r="AG18" t="n">
+      <c r="AG36" t="n">
         <v>44</v>
       </c>
-      <c r="AH18" t="n">
+      <c r="AH36" t="n">
         <v>38</v>
       </c>
-      <c r="AI18" t="n">
+      <c r="AI36" t="n">
         <v>27</v>
       </c>
-      <c r="AJ18" t="n">
+      <c r="AJ36" t="n">
         <v>36</v>
       </c>
-      <c r="AK18" t="n">
+      <c r="AK36" t="n">
         <v>80</v>
       </c>
-      <c r="AL18" t="n">
+      <c r="AL36" t="n">
         <v>17.5</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AM36" t="n">
         <v>29</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2024-12-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2024-12-12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM36"/>
+  <dimension ref="A1:AO36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,110 +521,120 @@
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
+          <t>Odd_Under35_FT_Back</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Over35_FT_Back</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
           <t>Odd_BTTS_Yes_Back</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Odd_BTTS_No_Back</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Double_Chance_Home_or_Draw_Back</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Double_Chance_Draw_or_Away_Back</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0x0_Lay</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0x1_Lay</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0x2_Lay</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0x3_Lay</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1x0_Lay</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1x1_Lay</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1x2_Lay</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1x3_Lay</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2x0_Lay</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2x1_Lay</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2x2_Lay</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2x3_Lay</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_3x0_Lay</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_3x1_Lay</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_3x2_Lay</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_3x3_Lay</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_Goleada_H_Lay</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_Goleada_A_Lay</t>
         </is>
@@ -675,7 +685,7 @@
         <v>3.8</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
@@ -693,69 +703,75 @@
         <v>1.83</v>
       </c>
       <c r="R2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="T2" t="n">
         <v>1.56</v>
       </c>
-      <c r="S2" t="n">
+      <c r="U2" t="n">
         <v>2.04</v>
       </c>
-      <c r="T2" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="W2" t="n">
         <v>1.39</v>
       </c>
-      <c r="V2" t="n">
+      <c r="X2" t="n">
         <v>21</v>
       </c>
-      <c r="W2" t="n">
+      <c r="Y2" t="n">
         <v>11.5</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Z2" t="n">
         <v>19</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="AA2" t="n">
         <v>36</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AB2" t="n">
         <v>17.5</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AC2" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AD2" t="n">
         <v>11</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AE2" t="n">
         <v>29</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AF2" t="n">
         <v>32</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AG2" t="n">
         <v>17</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AH2" t="n">
         <v>21</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AI2" t="n">
         <v>42</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AJ2" t="n">
         <v>75</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AK2" t="n">
         <v>46</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AL2" t="n">
         <v>55</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AM2" t="n">
         <v>110</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AN2" t="n">
         <v>42</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AO2" t="n">
         <v>21</v>
       </c>
     </row>
@@ -789,7 +805,7 @@
         <v>8</v>
       </c>
       <c r="G3" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H3" t="n">
         <v>1.45</v>
@@ -798,94 +814,100 @@
         <v>1.46</v>
       </c>
       <c r="J3" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="K3" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>2.94</v>
+        <v>4.8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P3" t="n">
         <v>2.54</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="R3" t="n">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="S3" t="n">
-        <v>2.08</v>
+        <v>2.3</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
         <v>30</v>
       </c>
-      <c r="W3" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="X3" t="n">
-        <v>13</v>
-      </c>
       <c r="Y3" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB3" t="n">
         <v>38</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AC3" t="n">
         <v>14</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AD3" t="n">
         <v>14.5</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AE3" t="n">
         <v>17.5</v>
       </c>
-      <c r="AD3" t="n">
-        <v>80</v>
-      </c>
-      <c r="AE3" t="n">
+      <c r="AF3" t="n">
+        <v>85</v>
+      </c>
+      <c r="AG3" t="n">
         <v>32</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AH3" t="n">
         <v>25</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AI3" t="n">
         <v>40</v>
       </c>
-      <c r="AH3" t="n">
-        <v>250</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>110</v>
-      </c>
       <c r="AJ3" t="n">
-        <v>85</v>
+        <v>310</v>
       </c>
       <c r="AK3" t="n">
         <v>110</v>
       </c>
       <c r="AL3" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AM3" t="n">
-        <v>5.2</v>
+        <v>110</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>140</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -951,69 +973,75 @@
         <v>1.95</v>
       </c>
       <c r="R4" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T4" t="n">
         <v>1.88</v>
       </c>
-      <c r="S4" t="n">
+      <c r="U4" t="n">
         <v>2.02</v>
       </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
       <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
         <v>14.5</v>
       </c>
-      <c r="W4" t="n">
+      <c r="Y4" t="n">
         <v>18</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Z4" t="n">
         <v>40</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="AA4" t="n">
         <v>150</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="AB4" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AC4" t="n">
         <v>8.6</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AD4" t="n">
         <v>21</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AE4" t="n">
         <v>1000</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AF4" t="n">
         <v>11</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AG4" t="n">
         <v>10.5</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AH4" t="n">
         <v>21</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AI4" t="n">
         <v>90</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AJ4" t="n">
         <v>19</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AK4" t="n">
         <v>19.5</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AL4" t="n">
         <v>38</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AM4" t="n">
         <v>150</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AN4" t="n">
         <v>11.5</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AO4" t="n">
         <v>95</v>
       </c>
     </row>
@@ -1068,7 +1096,7 @@
         <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="O5" t="n">
         <v>1.04</v>
@@ -1077,72 +1105,78 @@
         <v>2.28</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="R5" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="T5" t="n">
         <v>1.76</v>
       </c>
-      <c r="S5" t="n">
+      <c r="U5" t="n">
         <v>2.18</v>
       </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
       <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>24</v>
       </c>
-      <c r="W5" t="n">
+      <c r="Y5" t="n">
         <v>10.5</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Z5" t="n">
         <v>11</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="AA5" t="n">
         <v>19.5</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="AB5" t="n">
         <v>30</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AC5" t="n">
         <v>10.5</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AD5" t="n">
         <v>10</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AE5" t="n">
         <v>19</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AF5" t="n">
         <v>60</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AG5" t="n">
         <v>28</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AH5" t="n">
         <v>25</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AI5" t="n">
         <v>34</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AJ5" t="n">
         <v>180</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AK5" t="n">
         <v>90</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>85</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>120</v>
       </c>
       <c r="AL5" t="n">
         <v>85</v>
       </c>
       <c r="AM5" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>85</v>
+      </c>
+      <c r="AO5" t="n">
         <v>7.4</v>
       </c>
     </row>
@@ -1209,69 +1243,75 @@
         <v>2.08</v>
       </c>
       <c r="R6" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T6" t="n">
         <v>1.79</v>
       </c>
-      <c r="S6" t="n">
+      <c r="U6" t="n">
         <v>2.12</v>
       </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
       <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
         <v>16</v>
       </c>
-      <c r="W6" t="n">
+      <c r="Y6" t="n">
         <v>10.5</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Z6" t="n">
         <v>18.5</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="AA6" t="n">
         <v>40</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="AB6" t="n">
         <v>13</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AC6" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AD6" t="n">
         <v>12</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AE6" t="n">
         <v>32</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AF6" t="n">
         <v>27</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AG6" t="n">
         <v>14</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AH6" t="n">
         <v>22</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AI6" t="n">
         <v>50</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AJ6" t="n">
         <v>65</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AK6" t="n">
         <v>44</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AL6" t="n">
         <v>60</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AM6" t="n">
         <v>130</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AN6" t="n">
         <v>40</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AO6" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1338,69 +1378,75 @@
         <v>1.64</v>
       </c>
       <c r="R7" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="T7" t="n">
         <v>1.83</v>
       </c>
-      <c r="S7" t="n">
+      <c r="U7" t="n">
         <v>2.06</v>
       </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
       <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
         <v>27</v>
       </c>
-      <c r="W7" t="n">
+      <c r="Y7" t="n">
         <v>34</v>
       </c>
-      <c r="X7" t="n">
+      <c r="Z7" t="n">
         <v>75</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="AA7" t="n">
         <v>220</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="AB7" t="n">
         <v>10.5</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AC7" t="n">
         <v>12</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AD7" t="n">
         <v>32</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AE7" t="n">
         <v>110</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AF7" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AG7" t="n">
         <v>10.5</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AH7" t="n">
         <v>27</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AI7" t="n">
         <v>95</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AJ7" t="n">
         <v>16.5</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AK7" t="n">
         <v>18</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AL7" t="n">
         <v>38</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AM7" t="n">
         <v>130</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="AN7" t="n">
         <v>6.4</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AO7" t="n">
         <v>110</v>
       </c>
     </row>
@@ -1467,69 +1513,75 @@
         <v>1.75</v>
       </c>
       <c r="R8" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="T8" t="n">
         <v>1.71</v>
       </c>
-      <c r="S8" t="n">
+      <c r="U8" t="n">
         <v>2.14</v>
       </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
       <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>21</v>
       </c>
-      <c r="W8" t="n">
+      <c r="Y8" t="n">
         <v>23</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Z8" t="n">
         <v>46</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="AA8" t="n">
         <v>130</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="AB8" t="n">
         <v>11</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AC8" t="n">
         <v>10</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AD8" t="n">
         <v>23</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AE8" t="n">
         <v>70</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AF8" t="n">
         <v>14</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AG8" t="n">
         <v>12</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AH8" t="n">
         <v>23</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AI8" t="n">
         <v>75</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AJ8" t="n">
         <v>24</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AK8" t="n">
         <v>22</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AL8" t="n">
         <v>40</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="AM8" t="n">
         <v>120</v>
       </c>
-      <c r="AL8" t="n">
+      <c r="AN8" t="n">
         <v>11.5</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AO8" t="n">
         <v>70</v>
       </c>
     </row>
@@ -1596,69 +1648,75 @@
         <v>2.08</v>
       </c>
       <c r="R9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T9" t="n">
         <v>1.84</v>
       </c>
-      <c r="S9" t="n">
+      <c r="U9" t="n">
         <v>2.06</v>
       </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
       <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
         <v>15.5</v>
       </c>
-      <c r="W9" t="n">
+      <c r="Y9" t="n">
         <v>16.5</v>
       </c>
-      <c r="X9" t="n">
+      <c r="Z9" t="n">
         <v>32</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="AA9" t="n">
         <v>85</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="AB9" t="n">
         <v>9.6</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AC9" t="n">
         <v>9.6</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AD9" t="n">
         <v>19</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AE9" t="n">
         <v>55</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AF9" t="n">
         <v>16</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AG9" t="n">
         <v>13</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AH9" t="n">
         <v>23</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AI9" t="n">
         <v>70</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AJ9" t="n">
         <v>34</v>
       </c>
-      <c r="AI9" t="n">
+      <c r="AK9" t="n">
         <v>30</v>
       </c>
-      <c r="AJ9" t="n">
+      <c r="AL9" t="n">
         <v>50</v>
       </c>
-      <c r="AK9" t="n">
+      <c r="AM9" t="n">
         <v>140</v>
       </c>
-      <c r="AL9" t="n">
+      <c r="AN9" t="n">
         <v>21</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AO9" t="n">
         <v>55</v>
       </c>
     </row>
@@ -1725,69 +1783,75 @@
         <v>1.54</v>
       </c>
       <c r="R10" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T10" t="n">
         <v>1.5</v>
       </c>
-      <c r="S10" t="n">
+      <c r="U10" t="n">
         <v>2.78</v>
       </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
       <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
         <v>27</v>
       </c>
-      <c r="W10" t="n">
+      <c r="Y10" t="n">
         <v>17</v>
       </c>
-      <c r="X10" t="n">
+      <c r="Z10" t="n">
         <v>19.5</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="AA10" t="n">
         <v>32</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="AB10" t="n">
         <v>23</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AC10" t="n">
         <v>10</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AD10" t="n">
         <v>12</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AE10" t="n">
         <v>19.5</v>
       </c>
-      <c r="AD10" t="n">
+      <c r="AF10" t="n">
         <v>30</v>
       </c>
-      <c r="AE10" t="n">
+      <c r="AG10" t="n">
         <v>15.5</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="AH10" t="n">
         <v>14.5</v>
       </c>
-      <c r="AG10" t="n">
+      <c r="AI10" t="n">
         <v>27</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="AJ10" t="n">
         <v>70</v>
       </c>
-      <c r="AI10" t="n">
+      <c r="AK10" t="n">
         <v>40</v>
       </c>
-      <c r="AJ10" t="n">
+      <c r="AL10" t="n">
         <v>42</v>
       </c>
-      <c r="AK10" t="n">
+      <c r="AM10" t="n">
         <v>60</v>
       </c>
-      <c r="AL10" t="n">
+      <c r="AN10" t="n">
         <v>21</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AO10" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1848,75 +1912,81 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
         <v>1.61</v>
       </c>
-      <c r="S11" t="n">
+      <c r="U11" t="n">
         <v>2.18</v>
       </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
       <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
         <v>23</v>
       </c>
-      <c r="W11" t="n">
+      <c r="Y11" t="n">
         <v>13</v>
       </c>
-      <c r="X11" t="n">
+      <c r="Z11" t="n">
         <v>14</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="AA11" t="n">
         <v>23</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="AB11" t="n">
         <v>25</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AC11" t="n">
         <v>10</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AD11" t="n">
         <v>10.5</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AE11" t="n">
         <v>21</v>
       </c>
-      <c r="AD11" t="n">
+      <c r="AF11" t="n">
         <v>50</v>
       </c>
-      <c r="AE11" t="n">
+      <c r="AG11" t="n">
         <v>24</v>
       </c>
-      <c r="AF11" t="n">
+      <c r="AH11" t="n">
         <v>23</v>
       </c>
-      <c r="AG11" t="n">
+      <c r="AI11" t="n">
         <v>36</v>
       </c>
-      <c r="AH11" t="n">
+      <c r="AJ11" t="n">
         <v>130</v>
       </c>
-      <c r="AI11" t="n">
+      <c r="AK11" t="n">
         <v>70</v>
       </c>
-      <c r="AJ11" t="n">
+      <c r="AL11" t="n">
         <v>70</v>
       </c>
-      <c r="AK11" t="n">
+      <c r="AM11" t="n">
         <v>110</v>
       </c>
-      <c r="AL11" t="n">
+      <c r="AN11" t="n">
         <v>65</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AO11" t="n">
         <v>9.199999999999999</v>
       </c>
     </row>
@@ -1962,7 +2032,7 @@
         <v>3.65</v>
       </c>
       <c r="K12" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1983,69 +2053,75 @@
         <v>1.98</v>
       </c>
       <c r="R12" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T12" t="n">
         <v>1.8</v>
       </c>
-      <c r="S12" t="n">
+      <c r="U12" t="n">
         <v>2.08</v>
       </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
       <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
         <v>16</v>
       </c>
-      <c r="W12" t="n">
+      <c r="Y12" t="n">
         <v>18.5</v>
       </c>
-      <c r="X12" t="n">
+      <c r="Z12" t="n">
         <v>40</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="AA12" t="n">
         <v>120</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="AB12" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AC12" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AD12" t="n">
         <v>20</v>
       </c>
-      <c r="AC12" t="n">
+      <c r="AE12" t="n">
         <v>70</v>
       </c>
-      <c r="AD12" t="n">
+      <c r="AF12" t="n">
         <v>12.5</v>
       </c>
-      <c r="AE12" t="n">
+      <c r="AG12" t="n">
         <v>10.5</v>
       </c>
-      <c r="AF12" t="n">
+      <c r="AH12" t="n">
         <v>24</v>
       </c>
-      <c r="AG12" t="n">
+      <c r="AI12" t="n">
         <v>75</v>
       </c>
-      <c r="AH12" t="n">
+      <c r="AJ12" t="n">
         <v>27</v>
       </c>
-      <c r="AI12" t="n">
+      <c r="AK12" t="n">
         <v>26</v>
       </c>
-      <c r="AJ12" t="n">
+      <c r="AL12" t="n">
         <v>46</v>
       </c>
-      <c r="AK12" t="n">
+      <c r="AM12" t="n">
         <v>140</v>
       </c>
-      <c r="AL12" t="n">
+      <c r="AN12" t="n">
         <v>17.5</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AO12" t="n">
         <v>75</v>
       </c>
     </row>
@@ -2085,7 +2161,7 @@
         <v>3.55</v>
       </c>
       <c r="I13" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="J13" t="n">
         <v>3.8</v>
@@ -2112,69 +2188,75 @@
         <v>1.69</v>
       </c>
       <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
         <v>1.54</v>
       </c>
-      <c r="S13" t="n">
+      <c r="U13" t="n">
         <v>2.08</v>
       </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
       <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
         <v>23</v>
       </c>
-      <c r="W13" t="n">
+      <c r="Y13" t="n">
         <v>21</v>
       </c>
-      <c r="X13" t="n">
+      <c r="Z13" t="n">
         <v>34</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="AA13" t="n">
         <v>80</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="AB13" t="n">
         <v>14.5</v>
       </c>
-      <c r="AA13" t="n">
+      <c r="AC13" t="n">
         <v>9.4</v>
       </c>
-      <c r="AB13" t="n">
+      <c r="AD13" t="n">
         <v>19</v>
       </c>
-      <c r="AC13" t="n">
+      <c r="AE13" t="n">
         <v>48</v>
       </c>
-      <c r="AD13" t="n">
+      <c r="AF13" t="n">
         <v>17.5</v>
       </c>
-      <c r="AE13" t="n">
+      <c r="AG13" t="n">
         <v>13</v>
       </c>
-      <c r="AF13" t="n">
+      <c r="AH13" t="n">
         <v>21</v>
       </c>
-      <c r="AG13" t="n">
+      <c r="AI13" t="n">
         <v>55</v>
       </c>
-      <c r="AH13" t="n">
+      <c r="AJ13" t="n">
         <v>32</v>
       </c>
-      <c r="AI13" t="n">
+      <c r="AK13" t="n">
         <v>25</v>
       </c>
-      <c r="AJ13" t="n">
+      <c r="AL13" t="n">
         <v>38</v>
       </c>
-      <c r="AK13" t="n">
+      <c r="AM13" t="n">
         <v>95</v>
       </c>
-      <c r="AL13" t="n">
+      <c r="AN13" t="n">
         <v>15</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AO13" t="n">
         <v>38</v>
       </c>
     </row>
@@ -2205,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="G14" t="n">
         <v>2.7</v>
@@ -2241,69 +2323,75 @@
         <v>1.87</v>
       </c>
       <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
         <v>1.6</v>
       </c>
-      <c r="S14" t="n">
+      <c r="U14" t="n">
         <v>1.98</v>
       </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
       <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
         <v>17.5</v>
       </c>
-      <c r="W14" t="n">
+      <c r="Y14" t="n">
         <v>15</v>
       </c>
-      <c r="X14" t="n">
+      <c r="Z14" t="n">
         <v>23</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="AA14" t="n">
         <v>50</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="AB14" t="n">
         <v>14.5</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AC14" t="n">
         <v>9</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AD14" t="n">
         <v>15.5</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AE14" t="n">
         <v>36</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>15</v>
       </c>
       <c r="AF14" t="n">
         <v>22</v>
       </c>
       <c r="AG14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI14" t="n">
         <v>50</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AJ14" t="n">
         <v>48</v>
       </c>
-      <c r="AI14" t="n">
+      <c r="AK14" t="n">
         <v>36</v>
       </c>
-      <c r="AJ14" t="n">
+      <c r="AL14" t="n">
         <v>50</v>
       </c>
-      <c r="AK14" t="n">
+      <c r="AM14" t="n">
         <v>110</v>
       </c>
-      <c r="AL14" t="n">
+      <c r="AN14" t="n">
         <v>28</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AO14" t="n">
         <v>29</v>
       </c>
     </row>
@@ -2370,17 +2458,17 @@
         <v>1.75</v>
       </c>
       <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
         <v>1.86</v>
       </c>
-      <c r="S15" t="n">
+      <c r="U15" t="n">
         <v>1.86</v>
       </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
@@ -2433,6 +2521,12 @@
         <v>0</v>
       </c>
       <c r="AM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2499,69 +2593,75 @@
         <v>1.69</v>
       </c>
       <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
         <v>1.89</v>
       </c>
-      <c r="S16" t="n">
+      <c r="U16" t="n">
         <v>1.76</v>
       </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
       <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
         <v>26</v>
       </c>
-      <c r="W16" t="n">
+      <c r="Y16" t="n">
         <v>38</v>
       </c>
-      <c r="X16" t="n">
+      <c r="Z16" t="n">
         <v>110</v>
       </c>
-      <c r="Y16" t="n">
+      <c r="AA16" t="n">
         <v>1000</v>
       </c>
-      <c r="Z16" t="n">
+      <c r="AB16" t="n">
         <v>9.6</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AC16" t="n">
         <v>13</v>
       </c>
-      <c r="AB16" t="n">
+      <c r="AD16" t="n">
         <v>40</v>
       </c>
-      <c r="AC16" t="n">
+      <c r="AE16" t="n">
         <v>180</v>
       </c>
-      <c r="AD16" t="n">
+      <c r="AF16" t="n">
         <v>9</v>
       </c>
-      <c r="AE16" t="n">
+      <c r="AG16" t="n">
         <v>11.5</v>
       </c>
-      <c r="AF16" t="n">
+      <c r="AH16" t="n">
         <v>34</v>
       </c>
-      <c r="AG16" t="n">
+      <c r="AI16" t="n">
         <v>140</v>
       </c>
-      <c r="AH16" t="n">
+      <c r="AJ16" t="n">
         <v>12</v>
       </c>
-      <c r="AI16" t="n">
+      <c r="AK16" t="n">
         <v>19</v>
       </c>
-      <c r="AJ16" t="n">
+      <c r="AL16" t="n">
         <v>48</v>
       </c>
-      <c r="AK16" t="n">
+      <c r="AM16" t="n">
         <v>190</v>
       </c>
-      <c r="AL16" t="n">
+      <c r="AN16" t="n">
         <v>6.6</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AO16" t="n">
         <v>230</v>
       </c>
     </row>
@@ -2592,7 +2692,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="G17" t="n">
         <v>3.6</v>
@@ -2628,69 +2728,75 @@
         <v>2.22</v>
       </c>
       <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
         <v>1.77</v>
       </c>
-      <c r="S17" t="n">
+      <c r="U17" t="n">
         <v>1.76</v>
       </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
       <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
         <v>11</v>
       </c>
-      <c r="W17" t="n">
+      <c r="Y17" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="X17" t="n">
+      <c r="Z17" t="n">
         <v>18</v>
       </c>
-      <c r="Y17" t="n">
+      <c r="AA17" t="n">
         <v>44</v>
       </c>
-      <c r="Z17" t="n">
+      <c r="AB17" t="n">
         <v>13.5</v>
       </c>
-      <c r="AA17" t="n">
+      <c r="AC17" t="n">
         <v>7.6</v>
       </c>
-      <c r="AB17" t="n">
+      <c r="AD17" t="n">
         <v>15</v>
       </c>
-      <c r="AC17" t="n">
+      <c r="AE17" t="n">
         <v>38</v>
       </c>
-      <c r="AD17" t="n">
+      <c r="AF17" t="n">
         <v>26</v>
       </c>
-      <c r="AE17" t="n">
+      <c r="AG17" t="n">
         <v>18</v>
       </c>
-      <c r="AF17" t="n">
+      <c r="AH17" t="n">
         <v>25</v>
       </c>
-      <c r="AG17" t="n">
+      <c r="AI17" t="n">
         <v>65</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>75</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>55</v>
       </c>
       <c r="AJ17" t="n">
         <v>75</v>
       </c>
       <c r="AK17" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM17" t="n">
         <v>170</v>
       </c>
-      <c r="AL17" t="n">
+      <c r="AN17" t="n">
         <v>60</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AO17" t="n">
         <v>34</v>
       </c>
     </row>
@@ -2757,69 +2863,75 @@
         <v>2.16</v>
       </c>
       <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
         <v>2.36</v>
       </c>
-      <c r="S18" t="n">
+      <c r="U18" t="n">
         <v>1.52</v>
       </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0</v>
-      </c>
       <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
         <v>14.5</v>
       </c>
-      <c r="W18" t="n">
+      <c r="Y18" t="n">
         <v>29</v>
       </c>
-      <c r="X18" t="n">
+      <c r="Z18" t="n">
         <v>1000</v>
       </c>
-      <c r="Y18" t="n">
+      <c r="AA18" t="n">
         <v>1000</v>
       </c>
-      <c r="Z18" t="n">
+      <c r="AB18" t="n">
         <v>6.6</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="AC18" t="n">
         <v>12</v>
       </c>
-      <c r="AB18" t="n">
+      <c r="AD18" t="n">
         <v>42</v>
       </c>
-      <c r="AC18" t="n">
+      <c r="AE18" t="n">
         <v>230</v>
       </c>
-      <c r="AD18" t="n">
+      <c r="AF18" t="n">
         <v>7.6</v>
       </c>
-      <c r="AE18" t="n">
+      <c r="AG18" t="n">
         <v>13</v>
       </c>
-      <c r="AF18" t="n">
+      <c r="AH18" t="n">
         <v>42</v>
       </c>
-      <c r="AG18" t="n">
+      <c r="AI18" t="n">
         <v>220</v>
       </c>
-      <c r="AH18" t="n">
+      <c r="AJ18" t="n">
         <v>15</v>
       </c>
-      <c r="AI18" t="n">
+      <c r="AK18" t="n">
         <v>24</v>
       </c>
-      <c r="AJ18" t="n">
+      <c r="AL18" t="n">
         <v>75</v>
       </c>
-      <c r="AK18" t="n">
+      <c r="AM18" t="n">
         <v>1000</v>
       </c>
-      <c r="AL18" t="n">
+      <c r="AN18" t="n">
         <v>12</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AO18" t="n">
         <v>1000</v>
       </c>
     </row>
@@ -2886,69 +2998,75 @@
         <v>1.51</v>
       </c>
       <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
         <v>2.24</v>
       </c>
-      <c r="S19" t="n">
+      <c r="U19" t="n">
         <v>1.55</v>
       </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
       <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
         <v>40</v>
       </c>
-      <c r="W19" t="n">
+      <c r="Y19" t="n">
         <v>10.5</v>
       </c>
-      <c r="X19" t="n">
+      <c r="Z19" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="Y19" t="n">
+      <c r="AA19" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="Z19" t="n">
+      <c r="AB19" t="n">
         <v>55</v>
       </c>
-      <c r="AA19" t="n">
+      <c r="AC19" t="n">
         <v>22</v>
       </c>
-      <c r="AB19" t="n">
+      <c r="AD19" t="n">
         <v>15.5</v>
       </c>
-      <c r="AC19" t="n">
+      <c r="AE19" t="n">
         <v>18.5</v>
       </c>
-      <c r="AD19" t="n">
+      <c r="AF19" t="n">
         <v>190</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>55</v>
       </c>
       <c r="AG19" t="n">
         <v>60</v>
       </c>
       <c r="AH19" t="n">
+        <v>55</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ19" t="n">
         <v>1000</v>
       </c>
-      <c r="AI19" t="n">
+      <c r="AK19" t="n">
         <v>300</v>
       </c>
-      <c r="AJ19" t="n">
+      <c r="AL19" t="n">
         <v>200</v>
       </c>
-      <c r="AK19" t="n">
+      <c r="AM19" t="n">
         <v>280</v>
       </c>
-      <c r="AL19" t="n">
+      <c r="AN19" t="n">
         <v>410</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AO19" t="n">
         <v>3.9</v>
       </c>
     </row>
@@ -3009,75 +3127,81 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="Q20" t="n">
         <v>2.22</v>
       </c>
       <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
         <v>1.76</v>
       </c>
-      <c r="S20" t="n">
+      <c r="U20" t="n">
         <v>1.94</v>
       </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
       <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
         <v>13</v>
       </c>
-      <c r="W20" t="n">
+      <c r="Y20" t="n">
         <v>12.5</v>
       </c>
-      <c r="X20" t="n">
+      <c r="Z20" t="n">
         <v>29</v>
       </c>
-      <c r="Y20" t="n">
+      <c r="AA20" t="n">
         <v>80</v>
       </c>
-      <c r="Z20" t="n">
+      <c r="AB20" t="n">
         <v>9.6</v>
       </c>
-      <c r="AA20" t="n">
+      <c r="AC20" t="n">
         <v>8</v>
       </c>
-      <c r="AB20" t="n">
+      <c r="AD20" t="n">
         <v>18.5</v>
       </c>
-      <c r="AC20" t="n">
+      <c r="AE20" t="n">
         <v>55</v>
       </c>
-      <c r="AD20" t="n">
+      <c r="AF20" t="n">
         <v>16</v>
       </c>
-      <c r="AE20" t="n">
+      <c r="AG20" t="n">
         <v>11.5</v>
       </c>
-      <c r="AF20" t="n">
+      <c r="AH20" t="n">
         <v>24</v>
       </c>
-      <c r="AG20" t="n">
+      <c r="AI20" t="n">
         <v>70</v>
       </c>
-      <c r="AH20" t="n">
+      <c r="AJ20" t="n">
         <v>34</v>
       </c>
-      <c r="AI20" t="n">
+      <c r="AK20" t="n">
         <v>30</v>
       </c>
-      <c r="AJ20" t="n">
+      <c r="AL20" t="n">
         <v>55</v>
       </c>
-      <c r="AK20" t="n">
+      <c r="AM20" t="n">
         <v>140</v>
       </c>
-      <c r="AL20" t="n">
+      <c r="AN20" t="n">
         <v>23</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AO20" t="n">
         <v>55</v>
       </c>
     </row>
@@ -3141,72 +3265,78 @@
         <v>2.66</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="R21" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="T21" t="n">
         <v>1.55</v>
       </c>
-      <c r="S21" t="n">
+      <c r="U21" t="n">
         <v>2.62</v>
       </c>
-      <c r="T21" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0</v>
-      </c>
       <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
         <v>32</v>
       </c>
-      <c r="W21" t="n">
+      <c r="Y21" t="n">
         <v>24</v>
       </c>
-      <c r="X21" t="n">
+      <c r="Z21" t="n">
         <v>42</v>
       </c>
-      <c r="Y21" t="n">
+      <c r="AA21" t="n">
         <v>100</v>
       </c>
-      <c r="Z21" t="n">
+      <c r="AB21" t="n">
         <v>14</v>
       </c>
-      <c r="AA21" t="n">
+      <c r="AC21" t="n">
         <v>10.5</v>
       </c>
-      <c r="AB21" t="n">
+      <c r="AD21" t="n">
         <v>18</v>
       </c>
-      <c r="AC21" t="n">
+      <c r="AE21" t="n">
         <v>55</v>
       </c>
-      <c r="AD21" t="n">
+      <c r="AF21" t="n">
         <v>14.5</v>
       </c>
-      <c r="AE21" t="n">
+      <c r="AG21" t="n">
         <v>11</v>
       </c>
-      <c r="AF21" t="n">
+      <c r="AH21" t="n">
         <v>15.5</v>
       </c>
-      <c r="AG21" t="n">
+      <c r="AI21" t="n">
         <v>48</v>
       </c>
-      <c r="AH21" t="n">
+      <c r="AJ21" t="n">
         <v>22</v>
       </c>
-      <c r="AI21" t="n">
+      <c r="AK21" t="n">
         <v>17.5</v>
       </c>
-      <c r="AJ21" t="n">
+      <c r="AL21" t="n">
         <v>27</v>
       </c>
-      <c r="AK21" t="n">
+      <c r="AM21" t="n">
         <v>70</v>
       </c>
-      <c r="AL21" t="n">
+      <c r="AN21" t="n">
         <v>8</v>
       </c>
-      <c r="AM21" t="n">
+      <c r="AO21" t="n">
         <v>34</v>
       </c>
     </row>
@@ -3237,19 +3367,19 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="G22" t="n">
         <v>3.6</v>
       </c>
       <c r="H22" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="I22" t="n">
         <v>2.08</v>
       </c>
-      <c r="I22" t="n">
-        <v>2.1</v>
-      </c>
       <c r="J22" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K22" t="n">
         <v>4.2</v>
@@ -3273,69 +3403,75 @@
         <v>1.55</v>
       </c>
       <c r="R22" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="T22" t="n">
         <v>1.52</v>
       </c>
-      <c r="S22" t="n">
+      <c r="U22" t="n">
         <v>2.66</v>
       </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
       <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
         <v>29</v>
       </c>
-      <c r="W22" t="n">
+      <c r="Y22" t="n">
         <v>18</v>
       </c>
-      <c r="X22" t="n">
+      <c r="Z22" t="n">
         <v>20</v>
       </c>
-      <c r="Y22" t="n">
+      <c r="AA22" t="n">
         <v>32</v>
       </c>
-      <c r="Z22" t="n">
+      <c r="AB22" t="n">
         <v>26</v>
       </c>
-      <c r="AA22" t="n">
+      <c r="AC22" t="n">
         <v>11</v>
       </c>
-      <c r="AB22" t="n">
+      <c r="AD22" t="n">
         <v>10.5</v>
       </c>
-      <c r="AC22" t="n">
+      <c r="AE22" t="n">
         <v>19.5</v>
       </c>
-      <c r="AD22" t="n">
+      <c r="AF22" t="n">
         <v>38</v>
       </c>
-      <c r="AE22" t="n">
+      <c r="AG22" t="n">
         <v>18.5</v>
       </c>
-      <c r="AF22" t="n">
+      <c r="AH22" t="n">
         <v>16.5</v>
       </c>
-      <c r="AG22" t="n">
+      <c r="AI22" t="n">
         <v>32</v>
       </c>
-      <c r="AH22" t="n">
+      <c r="AJ22" t="n">
         <v>75</v>
       </c>
-      <c r="AI22" t="n">
+      <c r="AK22" t="n">
         <v>42</v>
       </c>
-      <c r="AJ22" t="n">
+      <c r="AL22" t="n">
         <v>46</v>
       </c>
-      <c r="AK22" t="n">
+      <c r="AM22" t="n">
         <v>70</v>
       </c>
-      <c r="AL22" t="n">
+      <c r="AN22" t="n">
         <v>25</v>
       </c>
-      <c r="AM22" t="n">
+      <c r="AO22" t="n">
         <v>9.6</v>
       </c>
     </row>
@@ -3402,69 +3538,75 @@
         <v>1.67</v>
       </c>
       <c r="R23" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="T23" t="n">
         <v>1.56</v>
       </c>
-      <c r="S23" t="n">
+      <c r="U23" t="n">
         <v>2.6</v>
       </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
       <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
         <v>23</v>
       </c>
-      <c r="W23" t="n">
+      <c r="Y23" t="n">
         <v>17</v>
       </c>
-      <c r="X23" t="n">
+      <c r="Z23" t="n">
         <v>22</v>
       </c>
-      <c r="Y23" t="n">
+      <c r="AA23" t="n">
         <v>48</v>
       </c>
-      <c r="Z23" t="n">
+      <c r="AB23" t="n">
         <v>15.5</v>
       </c>
-      <c r="AA23" t="n">
+      <c r="AC23" t="n">
         <v>9.4</v>
       </c>
-      <c r="AB23" t="n">
+      <c r="AD23" t="n">
         <v>13.5</v>
       </c>
-      <c r="AC23" t="n">
+      <c r="AE23" t="n">
         <v>28</v>
       </c>
-      <c r="AD23" t="n">
+      <c r="AF23" t="n">
         <v>20</v>
       </c>
-      <c r="AE23" t="n">
+      <c r="AG23" t="n">
         <v>12.5</v>
       </c>
-      <c r="AF23" t="n">
+      <c r="AH23" t="n">
         <v>15</v>
       </c>
-      <c r="AG23" t="n">
+      <c r="AI23" t="n">
         <v>38</v>
       </c>
-      <c r="AH23" t="n">
+      <c r="AJ23" t="n">
         <v>46</v>
       </c>
-      <c r="AI23" t="n">
+      <c r="AK23" t="n">
         <v>24</v>
       </c>
-      <c r="AJ23" t="n">
+      <c r="AL23" t="n">
         <v>34</v>
       </c>
-      <c r="AK23" t="n">
+      <c r="AM23" t="n">
         <v>75</v>
       </c>
-      <c r="AL23" t="n">
+      <c r="AN23" t="n">
         <v>15</v>
       </c>
-      <c r="AM23" t="n">
+      <c r="AO23" t="n">
         <v>17</v>
       </c>
     </row>
@@ -3531,69 +3673,75 @@
         <v>1.57</v>
       </c>
       <c r="R24" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="T24" t="n">
         <v>1.98</v>
       </c>
-      <c r="S24" t="n">
+      <c r="U24" t="n">
         <v>1.93</v>
       </c>
-      <c r="T24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0</v>
-      </c>
       <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
         <v>26</v>
       </c>
-      <c r="W24" t="n">
+      <c r="Y24" t="n">
         <v>85</v>
       </c>
-      <c r="X24" t="n">
+      <c r="Z24" t="n">
         <v>110</v>
       </c>
-      <c r="Y24" t="n">
+      <c r="AA24" t="n">
         <v>420</v>
       </c>
-      <c r="Z24" t="n">
+      <c r="AB24" t="n">
         <v>10.5</v>
       </c>
-      <c r="AA24" t="n">
+      <c r="AC24" t="n">
         <v>14</v>
       </c>
-      <c r="AB24" t="n">
+      <c r="AD24" t="n">
         <v>42</v>
       </c>
-      <c r="AC24" t="n">
+      <c r="AE24" t="n">
         <v>180</v>
       </c>
-      <c r="AD24" t="n">
+      <c r="AF24" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="AE24" t="n">
+      <c r="AG24" t="n">
         <v>11</v>
       </c>
-      <c r="AF24" t="n">
+      <c r="AH24" t="n">
         <v>30</v>
       </c>
-      <c r="AG24" t="n">
+      <c r="AI24" t="n">
         <v>1000</v>
       </c>
-      <c r="AH24" t="n">
+      <c r="AJ24" t="n">
         <v>11</v>
       </c>
-      <c r="AI24" t="n">
+      <c r="AK24" t="n">
         <v>14</v>
       </c>
-      <c r="AJ24" t="n">
+      <c r="AL24" t="n">
         <v>70</v>
       </c>
-      <c r="AK24" t="n">
+      <c r="AM24" t="n">
         <v>170</v>
       </c>
-      <c r="AL24" t="n">
+      <c r="AN24" t="n">
         <v>4.7</v>
       </c>
-      <c r="AM24" t="n">
+      <c r="AO24" t="n">
         <v>200</v>
       </c>
     </row>
@@ -3660,69 +3808,75 @@
         <v>1.84</v>
       </c>
       <c r="R25" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="T25" t="n">
         <v>1.92</v>
       </c>
-      <c r="S25" t="n">
+      <c r="U25" t="n">
         <v>1.91</v>
       </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
       <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
         <v>19</v>
       </c>
-      <c r="W25" t="n">
+      <c r="Y25" t="n">
         <v>26</v>
       </c>
-      <c r="X25" t="n">
+      <c r="Z25" t="n">
         <v>65</v>
       </c>
-      <c r="Y25" t="n">
+      <c r="AA25" t="n">
         <v>220</v>
       </c>
-      <c r="Z25" t="n">
+      <c r="AB25" t="n">
         <v>9.6</v>
       </c>
-      <c r="AA25" t="n">
+      <c r="AC25" t="n">
         <v>11</v>
       </c>
-      <c r="AB25" t="n">
+      <c r="AD25" t="n">
         <v>30</v>
       </c>
-      <c r="AC25" t="n">
+      <c r="AE25" t="n">
         <v>110</v>
       </c>
-      <c r="AD25" t="n">
+      <c r="AF25" t="n">
         <v>10.5</v>
       </c>
-      <c r="AE25" t="n">
+      <c r="AG25" t="n">
         <v>11</v>
       </c>
-      <c r="AF25" t="n">
+      <c r="AH25" t="n">
         <v>28</v>
       </c>
-      <c r="AG25" t="n">
+      <c r="AI25" t="n">
         <v>110</v>
       </c>
-      <c r="AH25" t="n">
+      <c r="AJ25" t="n">
         <v>18</v>
       </c>
-      <c r="AI25" t="n">
+      <c r="AK25" t="n">
         <v>21</v>
       </c>
-      <c r="AJ25" t="n">
+      <c r="AL25" t="n">
         <v>44</v>
       </c>
-      <c r="AK25" t="n">
+      <c r="AM25" t="n">
         <v>160</v>
       </c>
-      <c r="AL25" t="n">
+      <c r="AN25" t="n">
         <v>9.4</v>
       </c>
-      <c r="AM25" t="n">
+      <c r="AO25" t="n">
         <v>130</v>
       </c>
     </row>
@@ -3789,69 +3943,75 @@
         <v>1.72</v>
       </c>
       <c r="R26" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="T26" t="n">
         <v>1.89</v>
       </c>
-      <c r="S26" t="n">
+      <c r="U26" t="n">
         <v>2</v>
       </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
       <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
         <v>20</v>
       </c>
-      <c r="W26" t="n">
+      <c r="Y26" t="n">
         <v>28</v>
       </c>
-      <c r="X26" t="n">
+      <c r="Z26" t="n">
         <v>65</v>
       </c>
-      <c r="Y26" t="n">
+      <c r="AA26" t="n">
         <v>240</v>
       </c>
-      <c r="Z26" t="n">
+      <c r="AB26" t="n">
         <v>9.6</v>
       </c>
-      <c r="AA26" t="n">
+      <c r="AC26" t="n">
         <v>11</v>
       </c>
-      <c r="AB26" t="n">
+      <c r="AD26" t="n">
         <v>28</v>
       </c>
-      <c r="AC26" t="n">
+      <c r="AE26" t="n">
         <v>120</v>
       </c>
-      <c r="AD26" t="n">
+      <c r="AF26" t="n">
         <v>9.4</v>
       </c>
-      <c r="AE26" t="n">
+      <c r="AG26" t="n">
         <v>10</v>
       </c>
-      <c r="AF26" t="n">
+      <c r="AH26" t="n">
         <v>23</v>
       </c>
-      <c r="AG26" t="n">
+      <c r="AI26" t="n">
         <v>1000</v>
       </c>
-      <c r="AH26" t="n">
+      <c r="AJ26" t="n">
         <v>14</v>
       </c>
-      <c r="AI26" t="n">
+      <c r="AK26" t="n">
         <v>15.5</v>
       </c>
-      <c r="AJ26" t="n">
+      <c r="AL26" t="n">
         <v>34</v>
       </c>
-      <c r="AK26" t="n">
+      <c r="AM26" t="n">
         <v>150</v>
       </c>
-      <c r="AL26" t="n">
+      <c r="AN26" t="n">
         <v>6.8</v>
       </c>
-      <c r="AM26" t="n">
+      <c r="AO26" t="n">
         <v>130</v>
       </c>
     </row>
@@ -3918,69 +4078,75 @@
         <v>1.62</v>
       </c>
       <c r="R27" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="S27" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="T27" t="n">
         <v>1.53</v>
       </c>
-      <c r="S27" t="n">
+      <c r="U27" t="n">
         <v>2.72</v>
       </c>
-      <c r="T27" t="n">
-        <v>0</v>
-      </c>
-      <c r="U27" t="n">
-        <v>0</v>
-      </c>
       <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
         <v>32</v>
       </c>
-      <c r="W27" t="n">
+      <c r="Y27" t="n">
         <v>24</v>
       </c>
-      <c r="X27" t="n">
+      <c r="Z27" t="n">
         <v>36</v>
       </c>
-      <c r="Y27" t="n">
+      <c r="AA27" t="n">
         <v>75</v>
       </c>
-      <c r="Z27" t="n">
+      <c r="AB27" t="n">
         <v>17.5</v>
       </c>
-      <c r="AA27" t="n">
+      <c r="AC27" t="n">
         <v>9.4</v>
       </c>
-      <c r="AB27" t="n">
+      <c r="AD27" t="n">
         <v>18</v>
       </c>
-      <c r="AC27" t="n">
+      <c r="AE27" t="n">
         <v>42</v>
       </c>
-      <c r="AD27" t="n">
+      <c r="AF27" t="n">
         <v>21</v>
       </c>
-      <c r="AE27" t="n">
+      <c r="AG27" t="n">
         <v>11</v>
       </c>
-      <c r="AF27" t="n">
+      <c r="AH27" t="n">
         <v>17</v>
       </c>
-      <c r="AG27" t="n">
+      <c r="AI27" t="n">
         <v>42</v>
       </c>
-      <c r="AH27" t="n">
+      <c r="AJ27" t="n">
         <v>29</v>
       </c>
-      <c r="AI27" t="n">
+      <c r="AK27" t="n">
         <v>21</v>
       </c>
-      <c r="AJ27" t="n">
+      <c r="AL27" t="n">
         <v>32</v>
       </c>
-      <c r="AK27" t="n">
+      <c r="AM27" t="n">
         <v>65</v>
       </c>
-      <c r="AL27" t="n">
+      <c r="AN27" t="n">
         <v>11</v>
       </c>
-      <c r="AM27" t="n">
+      <c r="AO27" t="n">
         <v>23</v>
       </c>
     </row>
@@ -4014,7 +4180,7 @@
         <v>3</v>
       </c>
       <c r="G28" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="H28" t="n">
         <v>2.36</v>
@@ -4044,72 +4210,78 @@
         <v>1.99</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="R28" t="n">
-        <v>1.59</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U28" t="n">
         <v>2.02</v>
       </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
       <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
         <v>19.5</v>
       </c>
-      <c r="W28" t="n">
+      <c r="Y28" t="n">
         <v>14</v>
       </c>
-      <c r="X28" t="n">
+      <c r="Z28" t="n">
         <v>20</v>
       </c>
-      <c r="Y28" t="n">
+      <c r="AA28" t="n">
         <v>42</v>
       </c>
-      <c r="Z28" t="n">
+      <c r="AB28" t="n">
         <v>16</v>
       </c>
-      <c r="AA28" t="n">
+      <c r="AC28" t="n">
         <v>9.6</v>
       </c>
-      <c r="AB28" t="n">
+      <c r="AD28" t="n">
         <v>14</v>
       </c>
-      <c r="AC28" t="n">
+      <c r="AE28" t="n">
         <v>32</v>
       </c>
-      <c r="AD28" t="n">
+      <c r="AF28" t="n">
         <v>28</v>
       </c>
-      <c r="AE28" t="n">
+      <c r="AG28" t="n">
         <v>16</v>
       </c>
-      <c r="AF28" t="n">
+      <c r="AH28" t="n">
         <v>21</v>
       </c>
-      <c r="AG28" t="n">
+      <c r="AI28" t="n">
         <v>46</v>
       </c>
-      <c r="AH28" t="n">
+      <c r="AJ28" t="n">
         <v>65</v>
       </c>
-      <c r="AI28" t="n">
+      <c r="AK28" t="n">
         <v>44</v>
       </c>
-      <c r="AJ28" t="n">
+      <c r="AL28" t="n">
         <v>55</v>
       </c>
-      <c r="AK28" t="n">
+      <c r="AM28" t="n">
         <v>110</v>
       </c>
-      <c r="AL28" t="n">
+      <c r="AN28" t="n">
         <v>38</v>
       </c>
-      <c r="AM28" t="n">
+      <c r="AO28" t="n">
         <v>25</v>
       </c>
     </row>
@@ -4176,69 +4348,75 @@
         <v>1.46</v>
       </c>
       <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
         <v>1.65</v>
       </c>
-      <c r="S29" t="n">
+      <c r="U29" t="n">
         <v>1.91</v>
       </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
       <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
         <v>38</v>
       </c>
-      <c r="W29" t="n">
+      <c r="Y29" t="n">
         <v>48</v>
       </c>
-      <c r="X29" t="n">
+      <c r="Z29" t="n">
         <v>110</v>
       </c>
-      <c r="Y29" t="n">
+      <c r="AA29" t="n">
         <v>1000</v>
       </c>
-      <c r="Z29" t="n">
+      <c r="AB29" t="n">
         <v>15</v>
       </c>
-      <c r="AA29" t="n">
+      <c r="AC29" t="n">
         <v>17</v>
       </c>
-      <c r="AB29" t="n">
+      <c r="AD29" t="n">
         <v>40</v>
       </c>
-      <c r="AC29" t="n">
+      <c r="AE29" t="n">
         <v>140</v>
       </c>
-      <c r="AD29" t="n">
+      <c r="AF29" t="n">
         <v>11</v>
       </c>
-      <c r="AE29" t="n">
+      <c r="AG29" t="n">
         <v>13</v>
       </c>
-      <c r="AF29" t="n">
+      <c r="AH29" t="n">
         <v>30</v>
       </c>
-      <c r="AG29" t="n">
+      <c r="AI29" t="n">
         <v>110</v>
       </c>
-      <c r="AH29" t="n">
+      <c r="AJ29" t="n">
         <v>15</v>
       </c>
-      <c r="AI29" t="n">
+      <c r="AK29" t="n">
         <v>16.5</v>
       </c>
-      <c r="AJ29" t="n">
+      <c r="AL29" t="n">
         <v>36</v>
       </c>
-      <c r="AK29" t="n">
+      <c r="AM29" t="n">
         <v>130</v>
       </c>
-      <c r="AL29" t="n">
+      <c r="AN29" t="n">
         <v>4.8</v>
       </c>
-      <c r="AM29" t="n">
+      <c r="AO29" t="n">
         <v>130</v>
       </c>
     </row>
@@ -4305,69 +4483,75 @@
         <v>2.42</v>
       </c>
       <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
         <v>1.83</v>
       </c>
-      <c r="S30" t="n">
+      <c r="U30" t="n">
         <v>1.83</v>
       </c>
-      <c r="T30" t="n">
-        <v>0</v>
-      </c>
-      <c r="U30" t="n">
-        <v>0</v>
-      </c>
       <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
         <v>12</v>
       </c>
-      <c r="W30" t="n">
+      <c r="Y30" t="n">
         <v>13</v>
       </c>
-      <c r="X30" t="n">
+      <c r="Z30" t="n">
         <v>30</v>
       </c>
-      <c r="Y30" t="n">
+      <c r="AA30" t="n">
         <v>1000</v>
       </c>
-      <c r="Z30" t="n">
+      <c r="AB30" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="AA30" t="n">
+      <c r="AC30" t="n">
         <v>7.8</v>
       </c>
-      <c r="AB30" t="n">
+      <c r="AD30" t="n">
         <v>18</v>
       </c>
-      <c r="AC30" t="n">
+      <c r="AE30" t="n">
         <v>60</v>
       </c>
-      <c r="AD30" t="n">
+      <c r="AF30" t="n">
         <v>17.5</v>
       </c>
-      <c r="AE30" t="n">
+      <c r="AG30" t="n">
         <v>12.5</v>
       </c>
-      <c r="AF30" t="n">
+      <c r="AH30" t="n">
         <v>24</v>
       </c>
-      <c r="AG30" t="n">
+      <c r="AI30" t="n">
         <v>75</v>
       </c>
-      <c r="AH30" t="n">
+      <c r="AJ30" t="n">
         <v>42</v>
       </c>
-      <c r="AI30" t="n">
+      <c r="AK30" t="n">
         <v>36</v>
       </c>
-      <c r="AJ30" t="n">
+      <c r="AL30" t="n">
         <v>60</v>
       </c>
-      <c r="AK30" t="n">
+      <c r="AM30" t="n">
         <v>160</v>
       </c>
-      <c r="AL30" t="n">
+      <c r="AN30" t="n">
         <v>32</v>
       </c>
-      <c r="AM30" t="n">
+      <c r="AO30" t="n">
         <v>65</v>
       </c>
     </row>
@@ -4398,13 +4582,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="G31" t="n">
         <v>3.3</v>
       </c>
       <c r="H31" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="I31" t="n">
         <v>2.54</v>
@@ -4431,72 +4615,78 @@
         <v>2.08</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
         <v>1.56</v>
       </c>
-      <c r="S31" t="n">
+      <c r="U31" t="n">
         <v>2.22</v>
       </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
       <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
         <v>20</v>
       </c>
-      <c r="W31" t="n">
+      <c r="Y31" t="n">
         <v>13.5</v>
       </c>
-      <c r="X31" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y31" t="n">
+      <c r="Z31" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA31" t="n">
         <v>40</v>
       </c>
-      <c r="Z31" t="n">
+      <c r="AB31" t="n">
         <v>17</v>
       </c>
-      <c r="AA31" t="n">
+      <c r="AC31" t="n">
         <v>9.4</v>
       </c>
-      <c r="AB31" t="n">
+      <c r="AD31" t="n">
         <v>13</v>
       </c>
-      <c r="AC31" t="n">
+      <c r="AE31" t="n">
         <v>29</v>
       </c>
-      <c r="AD31" t="n">
+      <c r="AF31" t="n">
         <v>27</v>
       </c>
-      <c r="AE31" t="n">
+      <c r="AG31" t="n">
         <v>16.5</v>
       </c>
-      <c r="AF31" t="n">
+      <c r="AH31" t="n">
         <v>20</v>
       </c>
-      <c r="AG31" t="n">
+      <c r="AI31" t="n">
         <v>42</v>
       </c>
-      <c r="AH31" t="n">
+      <c r="AJ31" t="n">
         <v>60</v>
       </c>
-      <c r="AI31" t="n">
+      <c r="AK31" t="n">
         <v>38</v>
       </c>
-      <c r="AJ31" t="n">
+      <c r="AL31" t="n">
         <v>48</v>
       </c>
-      <c r="AK31" t="n">
+      <c r="AM31" t="n">
         <v>95</v>
       </c>
-      <c r="AL31" t="n">
+      <c r="AN31" t="n">
         <v>29</v>
       </c>
-      <c r="AM31" t="n">
+      <c r="AO31" t="n">
         <v>19.5</v>
       </c>
     </row>
@@ -4563,69 +4753,75 @@
         <v>1.59</v>
       </c>
       <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
         <v>1.61</v>
       </c>
-      <c r="S32" t="n">
+      <c r="U32" t="n">
         <v>1.98</v>
       </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
       <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
         <v>32</v>
       </c>
-      <c r="W32" t="n">
+      <c r="Y32" t="n">
         <v>32</v>
       </c>
-      <c r="X32" t="n">
+      <c r="Z32" t="n">
         <v>70</v>
       </c>
-      <c r="Y32" t="n">
+      <c r="AA32" t="n">
         <v>200</v>
       </c>
-      <c r="Z32" t="n">
+      <c r="AB32" t="n">
         <v>11.5</v>
       </c>
-      <c r="AA32" t="n">
+      <c r="AC32" t="n">
         <v>11</v>
       </c>
-      <c r="AB32" t="n">
+      <c r="AD32" t="n">
         <v>28</v>
       </c>
-      <c r="AC32" t="n">
+      <c r="AE32" t="n">
         <v>90</v>
       </c>
-      <c r="AD32" t="n">
+      <c r="AF32" t="n">
         <v>11</v>
       </c>
-      <c r="AE32" t="n">
+      <c r="AG32" t="n">
         <v>10.5</v>
       </c>
-      <c r="AF32" t="n">
+      <c r="AH32" t="n">
         <v>24</v>
       </c>
-      <c r="AG32" t="n">
+      <c r="AI32" t="n">
         <v>75</v>
       </c>
-      <c r="AH32" t="n">
+      <c r="AJ32" t="n">
         <v>17.5</v>
       </c>
-      <c r="AI32" t="n">
+      <c r="AK32" t="n">
         <v>19</v>
       </c>
-      <c r="AJ32" t="n">
+      <c r="AL32" t="n">
         <v>36</v>
       </c>
-      <c r="AK32" t="n">
+      <c r="AM32" t="n">
         <v>110</v>
       </c>
-      <c r="AL32" t="n">
+      <c r="AN32" t="n">
         <v>6.6</v>
       </c>
-      <c r="AM32" t="n">
+      <c r="AO32" t="n">
         <v>85</v>
       </c>
     </row>
@@ -4692,69 +4888,75 @@
         <v>1.68</v>
       </c>
       <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
         <v>2.08</v>
       </c>
-      <c r="S33" t="n">
+      <c r="U33" t="n">
         <v>1.76</v>
       </c>
-      <c r="T33" t="n">
-        <v>0</v>
-      </c>
-      <c r="U33" t="n">
-        <v>0</v>
-      </c>
       <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
         <v>25</v>
       </c>
-      <c r="W33" t="n">
+      <c r="Y33" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="X33" t="n">
+      <c r="Z33" t="n">
         <v>8.6</v>
       </c>
-      <c r="Y33" t="n">
+      <c r="AA33" t="n">
         <v>12.5</v>
       </c>
-      <c r="Z33" t="n">
+      <c r="AB33" t="n">
         <v>40</v>
       </c>
-      <c r="AA33" t="n">
+      <c r="AC33" t="n">
         <v>16</v>
       </c>
-      <c r="AB33" t="n">
+      <c r="AD33" t="n">
         <v>13</v>
       </c>
-      <c r="AC33" t="n">
+      <c r="AE33" t="n">
         <v>18</v>
       </c>
-      <c r="AD33" t="n">
+      <c r="AF33" t="n">
         <v>120</v>
       </c>
-      <c r="AE33" t="n">
+      <c r="AG33" t="n">
         <v>48</v>
       </c>
-      <c r="AF33" t="n">
+      <c r="AH33" t="n">
         <v>38</v>
       </c>
-      <c r="AG33" t="n">
+      <c r="AI33" t="n">
         <v>46</v>
       </c>
-      <c r="AH33" t="n">
+      <c r="AJ33" t="n">
         <v>440</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>210</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>170</v>
       </c>
       <c r="AK33" t="n">
         <v>210</v>
       </c>
       <c r="AL33" t="n">
+        <v>170</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>210</v>
+      </c>
+      <c r="AN33" t="n">
         <v>270</v>
       </c>
-      <c r="AM33" t="n">
+      <c r="AO33" t="n">
         <v>5.7</v>
       </c>
     </row>
@@ -4821,69 +5023,75 @@
         <v>1.83</v>
       </c>
       <c r="R34" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S34" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T34" t="n">
         <v>2.48</v>
       </c>
-      <c r="S34" t="n">
+      <c r="U34" t="n">
         <v>1.55</v>
       </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
       <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
         <v>22</v>
       </c>
-      <c r="W34" t="n">
+      <c r="Y34" t="n">
         <v>46</v>
       </c>
-      <c r="X34" t="n">
+      <c r="Z34" t="n">
         <v>180</v>
       </c>
-      <c r="Y34" t="n">
+      <c r="AA34" t="n">
         <v>1000</v>
       </c>
-      <c r="Z34" t="n">
+      <c r="AB34" t="n">
         <v>8</v>
       </c>
-      <c r="AA34" t="n">
+      <c r="AC34" t="n">
         <v>17.5</v>
       </c>
-      <c r="AB34" t="n">
+      <c r="AD34" t="n">
         <v>70</v>
       </c>
-      <c r="AC34" t="n">
+      <c r="AE34" t="n">
         <v>400</v>
       </c>
-      <c r="AD34" t="n">
+      <c r="AF34" t="n">
         <v>6.8</v>
       </c>
-      <c r="AE34" t="n">
+      <c r="AG34" t="n">
         <v>14</v>
       </c>
-      <c r="AF34" t="n">
+      <c r="AH34" t="n">
         <v>55</v>
       </c>
-      <c r="AG34" t="n">
+      <c r="AI34" t="n">
         <v>330</v>
       </c>
-      <c r="AH34" t="n">
+      <c r="AJ34" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="AI34" t="n">
+      <c r="AK34" t="n">
         <v>18.5</v>
       </c>
-      <c r="AJ34" t="n">
+      <c r="AL34" t="n">
         <v>60</v>
       </c>
-      <c r="AK34" t="n">
+      <c r="AM34" t="n">
         <v>380</v>
       </c>
-      <c r="AL34" t="n">
-        <v>6</v>
-      </c>
-      <c r="AM34" t="n">
+      <c r="AN34" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AO34" t="n">
         <v>1000</v>
       </c>
     </row>
@@ -4950,69 +5158,75 @@
         <v>1.68</v>
       </c>
       <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
         <v>1.62</v>
       </c>
-      <c r="S35" t="n">
+      <c r="U35" t="n">
         <v>2.18</v>
       </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
       <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
         <v>24</v>
       </c>
-      <c r="W35" t="n">
+      <c r="Y35" t="n">
         <v>20</v>
       </c>
-      <c r="X35" t="n">
+      <c r="Z35" t="n">
         <v>30</v>
       </c>
-      <c r="Y35" t="n">
+      <c r="AA35" t="n">
         <v>65</v>
       </c>
-      <c r="Z35" t="n">
+      <c r="AB35" t="n">
         <v>16</v>
       </c>
-      <c r="AA35" t="n">
+      <c r="AC35" t="n">
         <v>9.4</v>
       </c>
-      <c r="AB35" t="n">
+      <c r="AD35" t="n">
         <v>14.5</v>
       </c>
-      <c r="AC35" t="n">
+      <c r="AE35" t="n">
         <v>40</v>
       </c>
-      <c r="AD35" t="n">
+      <c r="AF35" t="n">
         <v>19.5</v>
       </c>
-      <c r="AE35" t="n">
+      <c r="AG35" t="n">
         <v>11.5</v>
       </c>
-      <c r="AF35" t="n">
+      <c r="AH35" t="n">
         <v>20</v>
       </c>
-      <c r="AG35" t="n">
+      <c r="AI35" t="n">
         <v>46</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>36</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>26</v>
       </c>
       <c r="AJ35" t="n">
         <v>36</v>
       </c>
       <c r="AK35" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM35" t="n">
         <v>85</v>
       </c>
-      <c r="AL35" t="n">
+      <c r="AN35" t="n">
         <v>15</v>
       </c>
-      <c r="AM35" t="n">
+      <c r="AO35" t="n">
         <v>29</v>
       </c>
     </row>
@@ -5079,69 +5293,75 @@
         <v>1.78</v>
       </c>
       <c r="R36" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="S36" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="T36" t="n">
         <v>1.6</v>
       </c>
-      <c r="S36" t="n">
+      <c r="U36" t="n">
         <v>2.5</v>
       </c>
-      <c r="T36" t="n">
-        <v>0</v>
-      </c>
-      <c r="U36" t="n">
-        <v>0</v>
-      </c>
       <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" t="n">
         <v>23</v>
       </c>
-      <c r="W36" t="n">
+      <c r="Y36" t="n">
         <v>19</v>
       </c>
-      <c r="X36" t="n">
+      <c r="Z36" t="n">
         <v>30</v>
       </c>
-      <c r="Y36" t="n">
+      <c r="AA36" t="n">
         <v>65</v>
       </c>
-      <c r="Z36" t="n">
+      <c r="AB36" t="n">
         <v>13</v>
       </c>
-      <c r="AA36" t="n">
+      <c r="AC36" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="AB36" t="n">
+      <c r="AD36" t="n">
         <v>14</v>
       </c>
-      <c r="AC36" t="n">
+      <c r="AE36" t="n">
         <v>40</v>
       </c>
-      <c r="AD36" t="n">
+      <c r="AF36" t="n">
         <v>20</v>
       </c>
-      <c r="AE36" t="n">
+      <c r="AG36" t="n">
         <v>11.5</v>
       </c>
-      <c r="AF36" t="n">
+      <c r="AH36" t="n">
         <v>18.5</v>
       </c>
-      <c r="AG36" t="n">
+      <c r="AI36" t="n">
         <v>44</v>
       </c>
-      <c r="AH36" t="n">
+      <c r="AJ36" t="n">
         <v>38</v>
       </c>
-      <c r="AI36" t="n">
+      <c r="AK36" t="n">
         <v>27</v>
       </c>
-      <c r="AJ36" t="n">
+      <c r="AL36" t="n">
         <v>36</v>
       </c>
-      <c r="AK36" t="n">
+      <c r="AM36" t="n">
         <v>80</v>
       </c>
-      <c r="AL36" t="n">
+      <c r="AN36" t="n">
         <v>17.5</v>
       </c>
-      <c r="AM36" t="n">
+      <c r="AO36" t="n">
         <v>29</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2024-12-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2024-12-12.xlsx
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G3" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="I3" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="J3" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="K3" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>2.3</v>
       </c>
       <c r="T3" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="U3" t="n">
         <v>2.04</v>
@@ -1096,7 +1096,7 @@
         <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O5" t="n">
         <v>1.04</v>
@@ -1105,7 +1105,7 @@
         <v>2.28</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="R5" t="n">
         <v>1.52</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="G13" t="n">
         <v>2.16</v>
@@ -2287,19 +2287,19 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.58</v>
+        <v>2.7</v>
       </c>
       <c r="G14" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="H14" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="I14" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="J14" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K14" t="n">
         <v>3.7</v>
@@ -2320,7 +2320,7 @@
         <v>1.94</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>3</v>
       </c>
       <c r="G28" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="H28" t="n">
         <v>2.36</v>
@@ -4210,7 +4210,7 @@
         <v>1.99</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -4897,7 +4897,7 @@
         <v>2.08</v>
       </c>
       <c r="U33" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2024-12-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2024-12-12.xlsx
@@ -805,10 +805,10 @@
         <v>8.199999999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="H3" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="I3" t="n">
         <v>1.47</v>
@@ -817,37 +817,37 @@
         <v>5</v>
       </c>
       <c r="K3" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N3" t="n">
         <v>4.8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P3" t="n">
-        <v>2.54</v>
+        <v>2.38</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.54</v>
+        <v>1.14</v>
       </c>
       <c r="R3" t="n">
-        <v>1.65</v>
+        <v>1.37</v>
       </c>
       <c r="S3" t="n">
         <v>2.3</v>
       </c>
       <c r="T3" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="U3" t="n">
-        <v>2.04</v>
+        <v>1.01</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -856,58 +856,58 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>310</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -1096,7 +1096,7 @@
         <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="O5" t="n">
         <v>1.04</v>
@@ -1117,7 +1117,7 @@
         <v>1.76</v>
       </c>
       <c r="U5" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -2830,7 +2830,7 @@
         <v>1.47</v>
       </c>
       <c r="G18" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="H18" t="n">
         <v>7.6</v>
@@ -2839,7 +2839,7 @@
         <v>10.5</v>
       </c>
       <c r="J18" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K18" t="n">
         <v>5</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -2872,7 +2872,7 @@
         <v>2.36</v>
       </c>
       <c r="U18" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2914,7 +2914,7 @@
         <v>42</v>
       </c>
       <c r="AI18" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AJ18" t="n">
         <v>15</v>
@@ -2923,10 +2923,10 @@
         <v>24</v>
       </c>
       <c r="AL18" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AM18" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AN18" t="n">
         <v>12</v>
@@ -4462,7 +4462,7 @@
         <v>3.05</v>
       </c>
       <c r="K30" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -4591,7 +4591,7 @@
         <v>2.32</v>
       </c>
       <c r="I31" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="J31" t="n">
         <v>3.6</v>
@@ -4930,7 +4930,7 @@
         <v>18</v>
       </c>
       <c r="AF33" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AG33" t="n">
         <v>48</v>
@@ -4942,10 +4942,10 @@
         <v>46</v>
       </c>
       <c r="AJ33" t="n">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="AK33" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AL33" t="n">
         <v>170</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2024-12-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2024-12-12.xlsx
@@ -691,10 +691,10 @@
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="P2" t="n">
         <v>2.04</v>
@@ -715,7 +715,7 @@
         <v>2.04</v>
       </c>
       <c r="V2" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="W2" t="n">
         <v>1.39</v>
@@ -724,7 +724,7 @@
         <v>21</v>
       </c>
       <c r="Y2" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="Z2" t="n">
         <v>19</v>
@@ -736,10 +736,10 @@
         <v>17.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.199999999999999</v>
+        <v>980</v>
       </c>
       <c r="AD2" t="n">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="AE2" t="n">
         <v>29</v>
@@ -802,52 +802,52 @@
         </is>
       </c>
       <c r="F3" t="n">
+        <v>8</v>
+      </c>
+      <c r="G3" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="G3" t="n">
-        <v>8.6</v>
-      </c>
       <c r="H3" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="I3" t="n">
         <v>1.47</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="K3" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N3" t="n">
         <v>4.8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P3" t="n">
-        <v>2.38</v>
+        <v>2.48</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.14</v>
+        <v>1.53</v>
       </c>
       <c r="R3" t="n">
-        <v>1.37</v>
+        <v>1.64</v>
       </c>
       <c r="S3" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="T3" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -856,58 +856,58 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="4">
@@ -1078,7 +1078,7 @@
         <v>6.4</v>
       </c>
       <c r="H5" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="I5" t="n">
         <v>1.64</v>
@@ -1096,7 +1096,7 @@
         <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O5" t="n">
         <v>1.04</v>
@@ -1105,16 +1105,16 @@
         <v>2.28</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="R5" t="n">
         <v>1.52</v>
       </c>
       <c r="S5" t="n">
-        <v>2.68</v>
+        <v>2.6</v>
       </c>
       <c r="T5" t="n">
-        <v>1.76</v>
+        <v>1.7</v>
       </c>
       <c r="U5" t="n">
         <v>2.14</v>
@@ -1222,7 +1222,7 @@
         <v>3.4</v>
       </c>
       <c r="K6" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1231,10 +1231,10 @@
         <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="O6" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="P6" t="n">
         <v>1.9</v>
@@ -1246,10 +1246,10 @@
         <v>1.34</v>
       </c>
       <c r="S6" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T6" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="U6" t="n">
         <v>2.12</v>
@@ -1261,16 +1261,16 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z6" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AA6" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AB6" t="n">
         <v>13</v>
@@ -1282,7 +1282,7 @@
         <v>12</v>
       </c>
       <c r="AE6" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AF6" t="n">
         <v>27</v>
@@ -1309,10 +1309,10 @@
         <v>130</v>
       </c>
       <c r="AN6" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AO6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
@@ -1381,10 +1381,10 @@
         <v>1.54</v>
       </c>
       <c r="S7" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="T7" t="n">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="U7" t="n">
         <v>2.06</v>
@@ -1402,10 +1402,10 @@
         <v>34</v>
       </c>
       <c r="Z7" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AA7" t="n">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="AB7" t="n">
         <v>10.5</v>
@@ -1414,10 +1414,10 @@
         <v>12</v>
       </c>
       <c r="AD7" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AE7" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AF7" t="n">
         <v>9.800000000000001</v>
@@ -1426,13 +1426,13 @@
         <v>10.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI7" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AJ7" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AK7" t="n">
         <v>18</v>
@@ -1441,13 +1441,13 @@
         <v>38</v>
       </c>
       <c r="AM7" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AN7" t="n">
         <v>6.4</v>
       </c>
       <c r="AO7" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8">
@@ -1510,13 +1510,13 @@
         <v>2.08</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="R8" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S8" t="n">
-        <v>2.92</v>
+        <v>2.84</v>
       </c>
       <c r="T8" t="n">
         <v>1.71</v>
@@ -1546,7 +1546,7 @@
         <v>11</v>
       </c>
       <c r="AC8" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD8" t="n">
         <v>23</v>
@@ -1555,13 +1555,13 @@
         <v>70</v>
       </c>
       <c r="AF8" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI8" t="n">
         <v>75</v>
@@ -1570,7 +1570,7 @@
         <v>24</v>
       </c>
       <c r="AK8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL8" t="n">
         <v>40</v>
@@ -1579,7 +1579,7 @@
         <v>120</v>
       </c>
       <c r="AN8" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AO8" t="n">
         <v>70</v>
@@ -1654,10 +1654,10 @@
         <v>3.55</v>
       </c>
       <c r="T9" t="n">
-        <v>1.84</v>
+        <v>1.67</v>
       </c>
       <c r="U9" t="n">
-        <v>2.06</v>
+        <v>1.87</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Y9" t="n">
         <v>16.5</v>
@@ -1681,7 +1681,7 @@
         <v>9.6</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD9" t="n">
         <v>19</v>
@@ -1690,10 +1690,10 @@
         <v>55</v>
       </c>
       <c r="AF9" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AH9" t="n">
         <v>23</v>
@@ -1714,7 +1714,7 @@
         <v>140</v>
       </c>
       <c r="AN9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO9" t="n">
         <v>55</v>
@@ -1750,7 +1750,7 @@
         <v>3.45</v>
       </c>
       <c r="G10" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="H10" t="n">
         <v>2.2</v>
@@ -1768,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N10" t="n">
         <v>5.6</v>
@@ -1882,13 +1882,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="G11" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="H11" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="I11" t="n">
         <v>1.8</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>2.18</v>
+        <v>2.28</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1939,13 +1939,13 @@
         <v>23</v>
       </c>
       <c r="Y11" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB11" t="n">
         <v>25</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="G12" t="n">
         <v>2.02</v>
@@ -2029,7 +2029,7 @@
         <v>4.5</v>
       </c>
       <c r="J12" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K12" t="n">
         <v>3.8</v>
@@ -2041,7 +2041,7 @@
         <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="O12" t="n">
         <v>1.32</v>
@@ -2056,7 +2056,7 @@
         <v>1.35</v>
       </c>
       <c r="S12" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="T12" t="n">
         <v>1.8</v>
@@ -2071,25 +2071,25 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Y12" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AA12" t="n">
         <v>120</v>
       </c>
       <c r="AB12" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE12" t="n">
         <v>70</v>
@@ -2122,7 +2122,7 @@
         <v>17.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13">
@@ -2161,7 +2161,7 @@
         <v>3.55</v>
       </c>
       <c r="I13" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="J13" t="n">
         <v>3.8</v>
@@ -2185,7 +2185,7 @@
         <v>2.2</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2197,7 +2197,7 @@
         <v>1.54</v>
       </c>
       <c r="U13" t="n">
-        <v>2.08</v>
+        <v>2.32</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="G14" t="n">
-        <v>2.72</v>
+        <v>2.9</v>
       </c>
       <c r="H14" t="n">
-        <v>2.76</v>
+        <v>2.62</v>
       </c>
       <c r="I14" t="n">
         <v>2.92</v>
@@ -2329,10 +2329,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1.6</v>
+        <v>1.66</v>
       </c>
       <c r="U14" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y14" t="n">
         <v>15</v>
@@ -2353,10 +2353,10 @@
         <v>50</v>
       </c>
       <c r="AB14" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD14" t="n">
         <v>15.5</v>
@@ -2365,10 +2365,10 @@
         <v>36</v>
       </c>
       <c r="AF14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AH14" t="n">
         <v>22</v>
@@ -2377,7 +2377,7 @@
         <v>50</v>
       </c>
       <c r="AJ14" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AK14" t="n">
         <v>36</v>
@@ -2455,7 +2455,7 @@
         <v>2.18</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2464,10 +2464,10 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U15" t="n">
-        <v>1.86</v>
+        <v>1.68</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2560,16 +2560,16 @@
         <v>1.39</v>
       </c>
       <c r="G16" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="H16" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I16" t="n">
         <v>11</v>
       </c>
       <c r="J16" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="K16" t="n">
         <v>5.8</v>
@@ -2587,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="Q16" t="n">
         <v>1.69</v>
@@ -2599,10 +2599,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="U16" t="n">
-        <v>1.76</v>
+        <v>1.68</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2614,7 +2614,7 @@
         <v>26</v>
       </c>
       <c r="Y16" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Z16" t="n">
         <v>110</v>
@@ -2623,31 +2623,31 @@
         <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>9.6</v>
+        <v>11</v>
       </c>
       <c r="AC16" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AE16" t="n">
         <v>180</v>
       </c>
       <c r="AF16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG16" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AH16" t="n">
         <v>34</v>
       </c>
       <c r="AI16" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AJ16" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AK16" t="n">
         <v>19</v>
@@ -2659,10 +2659,10 @@
         <v>190</v>
       </c>
       <c r="AN16" t="n">
-        <v>6.6</v>
+        <v>7.4</v>
       </c>
       <c r="AO16" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17">
@@ -2722,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2746,10 +2746,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y17" t="n">
         <v>11</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>9.199999999999999</v>
       </c>
       <c r="Z17" t="n">
         <v>18</v>
@@ -2761,7 +2761,7 @@
         <v>13.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.6</v>
+        <v>9</v>
       </c>
       <c r="AD17" t="n">
         <v>15</v>
@@ -2770,7 +2770,7 @@
         <v>38</v>
       </c>
       <c r="AF17" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG17" t="n">
         <v>18</v>
@@ -2827,22 +2827,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="G18" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="H18" t="n">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="I18" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="J18" t="n">
         <v>4.1</v>
       </c>
       <c r="K18" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>1.84</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -2869,10 +2869,10 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>2.36</v>
+        <v>1.01</v>
       </c>
       <c r="U18" t="n">
-        <v>1.53</v>
+        <v>1.01</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2881,10 +2881,10 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Y18" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="Z18" t="n">
         <v>1000</v>
@@ -2893,43 +2893,43 @@
         <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>6.6</v>
+        <v>9.6</v>
       </c>
       <c r="AC18" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AD18" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AE18" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>7.6</v>
+        <v>11</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH18" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AI18" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AL18" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
-        <v>330</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="AO18" t="n">
         <v>1000</v>
@@ -2962,10 +2962,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="G19" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="H19" t="n">
         <v>1.21</v>
@@ -2992,10 +2992,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>2.24</v>
       </c>
       <c r="U19" t="n">
-        <v>1.55</v>
+        <v>1.66</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -3016,16 +3016,16 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Y19" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z19" t="n">
-        <v>8.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AA19" t="n">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AB19" t="n">
         <v>55</v>
@@ -3046,7 +3046,7 @@
         <v>60</v>
       </c>
       <c r="AH19" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AI19" t="n">
         <v>60</v>
@@ -3067,7 +3067,7 @@
         <v>410</v>
       </c>
       <c r="AO19" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="20">
@@ -3127,10 +3127,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="G21" t="n">
         <v>1.85</v>
@@ -3268,7 +3268,7 @@
         <v>1.53</v>
       </c>
       <c r="R21" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S21" t="n">
         <v>2.32</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Y21" t="n">
         <v>24</v>
@@ -3295,7 +3295,7 @@
         <v>42</v>
       </c>
       <c r="AA21" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AB21" t="n">
         <v>14</v>
@@ -3313,7 +3313,7 @@
         <v>14.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH21" t="n">
         <v>15.5</v>
@@ -3322,7 +3322,7 @@
         <v>48</v>
       </c>
       <c r="AJ21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK21" t="n">
         <v>17.5</v>
@@ -3367,10 +3367,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="G22" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="H22" t="n">
         <v>2.06</v>
@@ -3379,10 +3379,10 @@
         <v>2.08</v>
       </c>
       <c r="J22" t="n">
+        <v>4</v>
+      </c>
+      <c r="K22" t="n">
         <v>4.1</v>
-      </c>
-      <c r="K22" t="n">
-        <v>4.2</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -3391,19 +3391,19 @@
         <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="O22" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="P22" t="n">
         <v>2.78</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="R22" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="S22" t="n">
         <v>2.34</v>
@@ -3463,13 +3463,13 @@
         <v>42</v>
       </c>
       <c r="AL22" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM22" t="n">
         <v>70</v>
       </c>
       <c r="AN22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO22" t="n">
         <v>9.6</v>
@@ -3544,7 +3544,7 @@
         <v>2.52</v>
       </c>
       <c r="T23" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="U23" t="n">
         <v>2.6</v>
@@ -3559,16 +3559,16 @@
         <v>23</v>
       </c>
       <c r="Y23" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB23" t="n">
         <v>17</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>48</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>15.5</v>
       </c>
       <c r="AC23" t="n">
         <v>9.4</v>
@@ -3577,10 +3577,10 @@
         <v>13.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF23" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AG23" t="n">
         <v>12.5</v>
@@ -3589,13 +3589,13 @@
         <v>15</v>
       </c>
       <c r="AI23" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AJ23" t="n">
         <v>46</v>
       </c>
       <c r="AK23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL23" t="n">
         <v>34</v>
@@ -3604,10 +3604,10 @@
         <v>75</v>
       </c>
       <c r="AN23" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="24">
@@ -3661,7 +3661,7 @@
         <v>1.03</v>
       </c>
       <c r="N24" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="O24" t="n">
         <v>1.17</v>
@@ -3700,7 +3700,7 @@
         <v>110</v>
       </c>
       <c r="AA24" t="n">
-        <v>420</v>
+        <v>460</v>
       </c>
       <c r="AB24" t="n">
         <v>10.5</v>
@@ -3712,7 +3712,7 @@
         <v>42</v>
       </c>
       <c r="AE24" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AF24" t="n">
         <v>8.800000000000001</v>
@@ -3736,13 +3736,13 @@
         <v>70</v>
       </c>
       <c r="AM24" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AN24" t="n">
         <v>4.7</v>
       </c>
       <c r="AO24" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25">
@@ -3811,13 +3811,13 @@
         <v>1.41</v>
       </c>
       <c r="S25" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T25" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="U25" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -3970,7 +3970,7 @@
         <v>65</v>
       </c>
       <c r="AA26" t="n">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="AB26" t="n">
         <v>9.6</v>
@@ -3982,7 +3982,7 @@
         <v>28</v>
       </c>
       <c r="AE26" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AF26" t="n">
         <v>9.4</v>
@@ -3991,7 +3991,7 @@
         <v>10</v>
       </c>
       <c r="AH26" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI26" t="n">
         <v>1000</v>
@@ -4012,7 +4012,7 @@
         <v>6.8</v>
       </c>
       <c r="AO26" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27">
@@ -4081,13 +4081,13 @@
         <v>1.63</v>
       </c>
       <c r="S27" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="T27" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="U27" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -4108,7 +4108,7 @@
         <v>75</v>
       </c>
       <c r="AB27" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC27" t="n">
         <v>9.4</v>
@@ -4123,7 +4123,7 @@
         <v>21</v>
       </c>
       <c r="AG27" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="AH27" t="n">
         <v>17</v>
@@ -4144,7 +4144,7 @@
         <v>65</v>
       </c>
       <c r="AN27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO27" t="n">
         <v>23</v>
@@ -4180,7 +4180,7 @@
         <v>3</v>
       </c>
       <c r="G28" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="H28" t="n">
         <v>2.36</v>
@@ -4210,7 +4210,7 @@
         <v>1.99</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -4237,7 +4237,7 @@
         <v>14</v>
       </c>
       <c r="Z28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA28" t="n">
         <v>42</v>
@@ -4345,7 +4345,7 @@
         <v>2.66</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="U29" t="n">
         <v>1.91</v>
@@ -4381,16 +4381,16 @@
         <v>15</v>
       </c>
       <c r="AC29" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AE29" t="n">
         <v>140</v>
       </c>
       <c r="AF29" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AG29" t="n">
         <v>13</v>
@@ -4414,7 +4414,7 @@
         <v>130</v>
       </c>
       <c r="AN29" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="AO29" t="n">
         <v>130</v>
@@ -4447,7 +4447,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="G30" t="n">
         <v>2.54</v>
@@ -4468,7 +4468,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -4501,7 +4501,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y30" t="n">
         <v>13</v>
@@ -4510,7 +4510,7 @@
         <v>30</v>
       </c>
       <c r="AA30" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AB30" t="n">
         <v>9.800000000000001</v>
@@ -4525,16 +4525,16 @@
         <v>60</v>
       </c>
       <c r="AF30" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AG30" t="n">
         <v>12.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI30" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ30" t="n">
         <v>42</v>
@@ -4543,16 +4543,16 @@
         <v>36</v>
       </c>
       <c r="AL30" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM30" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AN30" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AO30" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31">
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G31" t="n">
         <v>3.3</v>
@@ -4591,7 +4591,7 @@
         <v>2.32</v>
       </c>
       <c r="I31" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="J31" t="n">
         <v>3.6</v>
@@ -4615,7 +4615,7 @@
         <v>2.08</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -4639,7 +4639,7 @@
         <v>20</v>
       </c>
       <c r="Y31" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z31" t="n">
         <v>20</v>
@@ -4648,7 +4648,7 @@
         <v>40</v>
       </c>
       <c r="AB31" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AC31" t="n">
         <v>9.4</v>
@@ -4657,37 +4657,37 @@
         <v>13</v>
       </c>
       <c r="AE31" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF31" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG31" t="n">
         <v>16.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI31" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AJ31" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AK31" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AL31" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AM31" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AN31" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO31" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32">
@@ -4747,10 +4747,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.59</v>
+        <v>1.51</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -4759,7 +4759,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="U32" t="n">
         <v>1.98</v>
@@ -4774,7 +4774,7 @@
         <v>32</v>
       </c>
       <c r="Y32" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Z32" t="n">
         <v>70</v>
@@ -4783,31 +4783,31 @@
         <v>200</v>
       </c>
       <c r="AB32" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC32" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="AD32" t="n">
         <v>28</v>
       </c>
       <c r="AE32" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AF32" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AG32" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH32" t="n">
         <v>24</v>
       </c>
       <c r="AI32" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ32" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AK32" t="n">
         <v>19</v>
@@ -4819,10 +4819,10 @@
         <v>110</v>
       </c>
       <c r="AN32" t="n">
-        <v>6.6</v>
+        <v>7.8</v>
       </c>
       <c r="AO32" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33">
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="G33" t="n">
         <v>11</v>
@@ -4861,10 +4861,10 @@
         <v>1.36</v>
       </c>
       <c r="I33" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="J33" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="K33" t="n">
         <v>5.8</v>
@@ -4882,10 +4882,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -4894,10 +4894,10 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="U33" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y33" t="n">
         <v>9.800000000000001</v>
@@ -4918,7 +4918,7 @@
         <v>12.5</v>
       </c>
       <c r="AB33" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AC33" t="n">
         <v>16</v>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="G34" t="n">
         <v>1.29</v>
@@ -4996,7 +4996,7 @@
         <v>14.5</v>
       </c>
       <c r="I34" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="J34" t="n">
         <v>6.2</v>
@@ -5029,10 +5029,10 @@
         <v>3.05</v>
       </c>
       <c r="T34" t="n">
-        <v>2.48</v>
+        <v>2.34</v>
       </c>
       <c r="U34" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -5044,7 +5044,7 @@
         <v>22</v>
       </c>
       <c r="Y34" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Z34" t="n">
         <v>180</v>
@@ -5065,7 +5065,7 @@
         <v>400</v>
       </c>
       <c r="AF34" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="AG34" t="n">
         <v>14</v>
@@ -5077,16 +5077,16 @@
         <v>330</v>
       </c>
       <c r="AJ34" t="n">
-        <v>9.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="AK34" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AL34" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM34" t="n">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="AN34" t="n">
         <v>5.7</v>
@@ -5167,7 +5167,7 @@
         <v>1.62</v>
       </c>
       <c r="U35" t="n">
-        <v>2.18</v>
+        <v>2.42</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -5191,40 +5191,40 @@
         <v>16</v>
       </c>
       <c r="AC35" t="n">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="AD35" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AE35" t="n">
         <v>40</v>
       </c>
       <c r="AF35" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AG35" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH35" t="n">
         <v>20</v>
       </c>
       <c r="AI35" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AJ35" t="n">
         <v>36</v>
       </c>
       <c r="AK35" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL35" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AM35" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AN35" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO35" t="n">
         <v>29</v>
@@ -5260,16 +5260,16 @@
         <v>2.3</v>
       </c>
       <c r="G36" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="H36" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I36" t="n">
         <v>3.3</v>
       </c>
       <c r="J36" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K36" t="n">
         <v>3.8</v>
@@ -5296,7 +5296,7 @@
         <v>1.51</v>
       </c>
       <c r="S36" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="T36" t="n">
         <v>1.6</v>
@@ -5314,7 +5314,7 @@
         <v>23</v>
       </c>
       <c r="Y36" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Z36" t="n">
         <v>30</v>
@@ -5347,10 +5347,10 @@
         <v>44</v>
       </c>
       <c r="AJ36" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AK36" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL36" t="n">
         <v>36</v>
@@ -5362,7 +5362,7 @@
         <v>17.5</v>
       </c>
       <c r="AO36" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
